--- a/src/excel/（五）死神.xlsx
+++ b/src/excel/（五）死神.xlsx
@@ -1,46 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Black-Desert-Tool\src\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3B2240-24A6-4A7C-BAB1-D5B6A9F10446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet JS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>層數</t>
+  </si>
+  <si>
+    <t>渴望</t>
+  </si>
+  <si>
+    <t>歪斜</t>
+  </si>
+  <si>
+    <t>沉默</t>
+  </si>
+  <si>
+    <t>呼嘯</t>
+  </si>
+  <si>
+    <t>消滅</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -65,13 +81,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,6961 +420,6061 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>層數</v>
-      </c>
-      <c r="B1" t="str">
-        <v>渴望</v>
-      </c>
-      <c r="C1" t="str">
-        <v>歪斜</v>
-      </c>
-      <c r="D1" t="str">
-        <v>沉默</v>
-      </c>
-      <c r="E1" t="str">
-        <v>呼嘯</v>
-      </c>
-      <c r="F1" t="str">
-        <v>消滅</v>
-      </c>
-      <c r="G1" t="str">
-        <v>層數</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.005</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0.002</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.022000000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C3">
-        <v>0.011000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3">
-        <v>0.0055000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E3">
-        <v>0.0022</v>
+        <v>0.22</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.024</v>
+        <v>2.4</v>
       </c>
       <c r="C4">
-        <v>0.012</v>
+        <v>1.2</v>
       </c>
       <c r="D4">
-        <v>0.006</v>
+        <v>0.6</v>
       </c>
       <c r="E4">
-        <v>0.0024</v>
+        <v>0.24</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.026000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="C5">
-        <v>0.013000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D5">
-        <v>0.006500000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="E5">
-        <v>0.0026</v>
+        <v>0.26</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.027999999999999997</v>
+        <v>2.8</v>
       </c>
       <c r="C6">
-        <v>0.013999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="D6">
-        <v>0.006999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0.0028000000000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>0.015</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
-        <v>0.0075</v>
+        <v>0.75</v>
       </c>
       <c r="E7">
-        <v>0.003</v>
+        <v>0.3</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.032</v>
+        <v>3.2</v>
       </c>
       <c r="C8">
-        <v>0.016</v>
+        <v>1.6</v>
       </c>
       <c r="D8">
-        <v>0.008</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0.0032</v>
+        <v>0.32</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.034</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="C9">
-        <v>0.017</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="D9">
-        <v>0.0085</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="E9">
-        <v>0.0034000000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.036000000000000004</v>
+        <v>3.6000000000000005</v>
       </c>
       <c r="C10">
-        <v>0.018000000000000002</v>
+        <v>1.8000000000000003</v>
       </c>
       <c r="D10">
-        <v>0.009000000000000001</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="E10">
-        <v>0.0036</v>
+        <v>0.36</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.038</v>
+        <v>3.8</v>
       </c>
       <c r="C11">
-        <v>0.019</v>
+        <v>1.9</v>
       </c>
       <c r="D11">
-        <v>0.0095</v>
+        <v>0.95</v>
       </c>
       <c r="E11">
-        <v>0.0038</v>
+        <v>0.38</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.4</v>
+      </c>
+      <c r="F12">
         <v>0.01</v>
       </c>
-      <c r="E12">
-        <v>0.004</v>
-      </c>
-      <c r="F12">
-        <v>0.0001</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.042</v>
+        <v>4.2</v>
       </c>
       <c r="C13">
-        <v>0.021</v>
+        <v>2.1</v>
       </c>
       <c r="D13">
-        <v>0.0105</v>
+        <v>1.05</v>
       </c>
       <c r="E13">
-        <v>0.0042</v>
+        <v>0.42</v>
       </c>
       <c r="F13">
-        <v>0.0001</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.044000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C14">
-        <v>0.022000000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D14">
-        <v>0.011000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E14">
-        <v>0.0044</v>
+        <v>0.44</v>
       </c>
       <c r="F14">
-        <v>0.0001</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.046</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C15">
-        <v>0.023</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D15">
-        <v>0.0115</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E15">
-        <v>0.0046</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="F15">
-        <v>0.0001</v>
-      </c>
-      <c r="G15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.048</v>
+        <v>4.8</v>
       </c>
       <c r="C16">
-        <v>0.024</v>
+        <v>2.4</v>
       </c>
       <c r="D16">
-        <v>0.012</v>
+        <v>1.2</v>
       </c>
       <c r="E16">
-        <v>0.0048</v>
+        <v>0.48</v>
       </c>
       <c r="F16">
-        <v>0.0001</v>
-      </c>
-      <c r="G16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>0.025</v>
+        <v>2.5</v>
       </c>
       <c r="D17">
-        <v>0.0125</v>
+        <v>1.25</v>
       </c>
       <c r="E17">
-        <v>0.005</v>
+        <v>0.5</v>
       </c>
       <c r="F17">
-        <v>0.0001</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.052000000000000005</v>
+        <v>5.2</v>
       </c>
       <c r="C18">
-        <v>0.026000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="D18">
-        <v>0.013000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E18">
-        <v>0.0052</v>
+        <v>0.52</v>
       </c>
       <c r="F18">
-        <v>0.0001</v>
-      </c>
-      <c r="G18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.054000000000000006</v>
+        <v>5.4</v>
       </c>
       <c r="C19">
-        <v>0.027000000000000003</v>
+        <v>2.7</v>
       </c>
       <c r="D19">
-        <v>0.013500000000000002</v>
+        <v>1.35</v>
       </c>
       <c r="E19">
-        <v>0.0054</v>
+        <v>0.54</v>
       </c>
       <c r="F19">
-        <v>0.0001</v>
-      </c>
-      <c r="G19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.055999999999999994</v>
+        <v>5.6</v>
       </c>
       <c r="C20">
-        <v>0.027999999999999997</v>
+        <v>2.8</v>
       </c>
       <c r="D20">
-        <v>0.013999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="E20">
-        <v>0.005600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F20">
-        <v>0.0001</v>
-      </c>
-      <c r="G20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.057999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="C21">
-        <v>0.028999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="D21">
-        <v>0.014499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="E21">
-        <v>0.0058</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F21">
-        <v>0.0001</v>
-      </c>
-      <c r="G21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>0.015</v>
+        <v>1.5</v>
       </c>
       <c r="E22">
-        <v>0.006</v>
+        <v>0.6</v>
       </c>
       <c r="F22">
-        <v>0.0001</v>
-      </c>
-      <c r="G22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.062</v>
+        <v>6.2</v>
       </c>
       <c r="C23">
-        <v>0.031</v>
+        <v>3.1</v>
       </c>
       <c r="D23">
-        <v>0.0155</v>
+        <v>1.55</v>
       </c>
       <c r="E23">
-        <v>0.0062</v>
+        <v>0.62</v>
       </c>
       <c r="F23">
-        <v>0.0001</v>
-      </c>
-      <c r="G23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.064</v>
+        <v>6.4</v>
       </c>
       <c r="C24">
-        <v>0.032</v>
+        <v>3.2</v>
       </c>
       <c r="D24">
-        <v>0.016</v>
+        <v>1.6</v>
       </c>
       <c r="E24">
-        <v>0.0064</v>
+        <v>0.64</v>
       </c>
       <c r="F24">
-        <v>0.0001</v>
-      </c>
-      <c r="G24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.066</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="C25">
-        <v>0.033</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="D25">
-        <v>0.0165</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E25">
-        <v>0.0066</v>
+        <v>0.66</v>
       </c>
       <c r="F25">
-        <v>0.0001</v>
-      </c>
-      <c r="G25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.068</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="C26">
-        <v>0.034</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="D26">
-        <v>0.017</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="E26">
-        <v>0.0068000000000000005</v>
+        <v>0.68</v>
       </c>
       <c r="F26">
-        <v>0.0001</v>
-      </c>
-      <c r="G26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.07</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="C27">
-        <v>0.035</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="D27">
-        <v>0.0175</v>
+        <v>1.7500000000000002</v>
       </c>
       <c r="E27">
-        <v>0.006999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F27">
-        <v>0.0001</v>
-      </c>
-      <c r="G27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.07200000000000001</v>
+        <v>7.2000000000000011</v>
       </c>
       <c r="C28">
-        <v>0.036000000000000004</v>
+        <v>3.6000000000000005</v>
       </c>
       <c r="D28">
-        <v>0.018000000000000002</v>
+        <v>1.8000000000000003</v>
       </c>
       <c r="E28">
-        <v>0.0072</v>
+        <v>0.72</v>
       </c>
       <c r="F28">
-        <v>0.0001</v>
-      </c>
-      <c r="G28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.07400000000000001</v>
+        <v>7.4000000000000012</v>
       </c>
       <c r="C29">
-        <v>0.037000000000000005</v>
+        <v>3.7000000000000006</v>
       </c>
       <c r="D29">
-        <v>0.018500000000000003</v>
+        <v>1.8500000000000003</v>
       </c>
       <c r="E29">
-        <v>0.0074</v>
+        <v>0.74</v>
       </c>
       <c r="F29">
-        <v>0.0001</v>
-      </c>
-      <c r="G29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.076</v>
+        <v>7.6</v>
       </c>
       <c r="C30">
-        <v>0.038</v>
+        <v>3.8</v>
       </c>
       <c r="D30">
-        <v>0.019</v>
+        <v>1.9</v>
       </c>
       <c r="E30">
-        <v>0.0076</v>
+        <v>0.76</v>
       </c>
       <c r="F30">
-        <v>0.0001</v>
-      </c>
-      <c r="G30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.078</v>
+        <v>7.8</v>
       </c>
       <c r="C31">
-        <v>0.039</v>
+        <v>3.9</v>
       </c>
       <c r="D31">
-        <v>0.0195</v>
+        <v>1.95</v>
       </c>
       <c r="E31">
-        <v>0.0078000000000000005</v>
+        <v>0.78</v>
       </c>
       <c r="F31">
-        <v>0.0001</v>
-      </c>
-      <c r="G31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>0.008</v>
+        <v>0.8</v>
       </c>
       <c r="F32">
-        <v>0.0001</v>
-      </c>
-      <c r="G32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.08199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C33">
-        <v>0.040999999999999995</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D33">
-        <v>0.020499999999999997</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E33">
-        <v>0.008199999999999999</v>
+        <v>0.81999999999999984</v>
       </c>
       <c r="F33">
-        <v>0.0001</v>
-      </c>
-      <c r="G33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.084</v>
+        <v>8.4</v>
       </c>
       <c r="C34">
-        <v>0.042</v>
+        <v>4.2</v>
       </c>
       <c r="D34">
-        <v>0.021</v>
+        <v>2.1</v>
       </c>
       <c r="E34">
-        <v>0.0084</v>
+        <v>0.84</v>
       </c>
       <c r="F34">
-        <v>0.0001</v>
-      </c>
-      <c r="G34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.086</v>
+        <v>8.6</v>
       </c>
       <c r="C35">
-        <v>0.043</v>
+        <v>4.3</v>
       </c>
       <c r="D35">
-        <v>0.0215</v>
+        <v>2.15</v>
       </c>
       <c r="E35">
-        <v>0.0086</v>
+        <v>0.86</v>
       </c>
       <c r="F35">
-        <v>0.0001</v>
-      </c>
-      <c r="G35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C36">
-        <v>0.044000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D36">
-        <v>0.022000000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E36">
-        <v>0.0088</v>
+        <v>0.88</v>
       </c>
       <c r="F36">
-        <v>0.0001</v>
-      </c>
-      <c r="G36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>0.045</v>
+        <v>4.5</v>
       </c>
       <c r="D37">
-        <v>0.0225</v>
+        <v>2.25</v>
       </c>
       <c r="E37">
-        <v>0.009000000000000001</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="F37">
-        <v>0.0001</v>
-      </c>
-      <c r="G37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.092</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C38">
-        <v>0.046</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D38">
-        <v>0.023</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E38">
-        <v>0.0092</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="F38">
-        <v>0.0001</v>
-      </c>
-      <c r="G38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.094</v>
+        <v>9.4</v>
       </c>
       <c r="C39">
-        <v>0.047</v>
+        <v>4.7</v>
       </c>
       <c r="D39">
-        <v>0.0235</v>
+        <v>2.35</v>
       </c>
       <c r="E39">
-        <v>0.009399999999999999</v>
+        <v>0.93999999999999984</v>
       </c>
       <c r="F39">
-        <v>0.0001</v>
-      </c>
-      <c r="G39">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.096</v>
+        <v>9.6</v>
       </c>
       <c r="C40">
-        <v>0.048</v>
+        <v>4.8</v>
       </c>
       <c r="D40">
-        <v>0.024</v>
+        <v>2.4</v>
       </c>
       <c r="E40">
-        <v>0.0096</v>
+        <v>0.96</v>
       </c>
       <c r="F40">
-        <v>0.0001</v>
-      </c>
-      <c r="G40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.098</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C41">
-        <v>0.049</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D41">
-        <v>0.0245</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="E41">
-        <v>0.0098</v>
+        <v>0.98</v>
       </c>
       <c r="F41">
-        <v>0.0001</v>
-      </c>
-      <c r="G41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>0.025</v>
+        <v>2.5</v>
       </c>
       <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
         <v>0.01</v>
       </c>
-      <c r="F42">
-        <v>0.0001</v>
-      </c>
-      <c r="G42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.102</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C43">
-        <v>0.051</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D43">
-        <v>0.0255</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E43">
-        <v>0.0102</v>
+        <v>1.02</v>
       </c>
       <c r="F43">
-        <v>0.0001</v>
-      </c>
-      <c r="G43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.10400000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="C44">
-        <v>0.052000000000000005</v>
+        <v>5.2</v>
       </c>
       <c r="D44">
-        <v>0.026000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="E44">
-        <v>0.0104</v>
+        <v>1.04</v>
       </c>
       <c r="F44">
-        <v>0.0001</v>
-      </c>
-      <c r="G44">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.106</v>
+        <v>10.6</v>
       </c>
       <c r="C45">
-        <v>0.053</v>
+        <v>5.3</v>
       </c>
       <c r="D45">
-        <v>0.0265</v>
+        <v>2.65</v>
       </c>
       <c r="E45">
-        <v>0.0106</v>
+        <v>1.06</v>
       </c>
       <c r="F45">
-        <v>0.0001</v>
-      </c>
-      <c r="G45">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.10800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="C46">
-        <v>0.054000000000000006</v>
+        <v>5.4</v>
       </c>
       <c r="D46">
-        <v>0.027000000000000003</v>
+        <v>2.7</v>
       </c>
       <c r="E46">
-        <v>0.0108</v>
+        <v>1.08</v>
       </c>
       <c r="F46">
-        <v>0.0001</v>
-      </c>
-      <c r="G46">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>0.055</v>
+        <v>5.5</v>
       </c>
       <c r="D47">
-        <v>0.0275</v>
+        <v>2.75</v>
       </c>
       <c r="E47">
-        <v>0.011000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F47">
-        <v>0.0001</v>
-      </c>
-      <c r="G47">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.11199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C48">
-        <v>0.055999999999999994</v>
+        <v>5.6</v>
       </c>
       <c r="D48">
-        <v>0.027999999999999997</v>
+        <v>2.8</v>
       </c>
       <c r="E48">
-        <v>0.011200000000000002</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F48">
-        <v>0.0001</v>
-      </c>
-      <c r="G48">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.114</v>
+        <v>11.4</v>
       </c>
       <c r="C49">
-        <v>0.057</v>
+        <v>5.7</v>
       </c>
       <c r="D49">
-        <v>0.0285</v>
+        <v>2.85</v>
       </c>
       <c r="E49">
-        <v>0.011399999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F49">
-        <v>0.0001</v>
-      </c>
-      <c r="G49">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.11599999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="C50">
-        <v>0.057999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="D50">
-        <v>0.028999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="E50">
-        <v>0.0116</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F50">
-        <v>0.0001</v>
-      </c>
-      <c r="G50">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.11800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="C51">
-        <v>0.059000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="D51">
-        <v>0.029500000000000002</v>
+        <v>2.95</v>
       </c>
       <c r="E51">
-        <v>0.0118</v>
+        <v>1.18</v>
       </c>
       <c r="F51">
-        <v>0.0001</v>
-      </c>
-      <c r="G51">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.12</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>0.012</v>
+        <v>1.2</v>
       </c>
       <c r="F52">
-        <v>0.0002</v>
-      </c>
-      <c r="G52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.122</v>
+        <v>12.2</v>
       </c>
       <c r="C53">
-        <v>0.061</v>
+        <v>6.1</v>
       </c>
       <c r="D53">
-        <v>0.0305</v>
+        <v>3.05</v>
       </c>
       <c r="E53">
-        <v>0.012199999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="F53">
-        <v>0.0002</v>
-      </c>
-      <c r="G53">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.124</v>
+        <v>12.4</v>
       </c>
       <c r="C54">
-        <v>0.062</v>
+        <v>6.2</v>
       </c>
       <c r="D54">
-        <v>0.031</v>
+        <v>3.1</v>
       </c>
       <c r="E54">
-        <v>0.0124</v>
+        <v>1.24</v>
       </c>
       <c r="F54">
-        <v>0.0002</v>
-      </c>
-      <c r="G54">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.126</v>
+        <v>12.6</v>
       </c>
       <c r="C55">
-        <v>0.063</v>
+        <v>6.3</v>
       </c>
       <c r="D55">
-        <v>0.0315</v>
+        <v>3.15</v>
       </c>
       <c r="E55">
-        <v>0.0126</v>
+        <v>1.26</v>
       </c>
       <c r="F55">
-        <v>0.0002</v>
-      </c>
-      <c r="G55">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.128</v>
+        <v>12.8</v>
       </c>
       <c r="C56">
-        <v>0.064</v>
+        <v>6.4</v>
       </c>
       <c r="D56">
-        <v>0.032</v>
+        <v>3.2</v>
       </c>
       <c r="E56">
-        <v>0.0128</v>
+        <v>1.28</v>
       </c>
       <c r="F56">
-        <v>0.0002</v>
-      </c>
-      <c r="G56">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.13</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>0.065</v>
+        <v>6.5</v>
       </c>
       <c r="D57">
-        <v>0.0325</v>
+        <v>3.25</v>
       </c>
       <c r="E57">
-        <v>0.013000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="F57">
-        <v>0.0002</v>
-      </c>
-      <c r="G57">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.132</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="C58">
-        <v>0.066</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="D58">
-        <v>0.033</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="E58">
-        <v>0.0132</v>
+        <v>1.32</v>
       </c>
       <c r="F58">
-        <v>0.0002</v>
-      </c>
-      <c r="G58">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.134</v>
+        <v>13.4</v>
       </c>
       <c r="C59">
-        <v>0.067</v>
+        <v>6.7</v>
       </c>
       <c r="D59">
-        <v>0.0335</v>
+        <v>3.35</v>
       </c>
       <c r="E59">
-        <v>0.0134</v>
+        <v>1.34</v>
       </c>
       <c r="F59">
-        <v>0.0002</v>
-      </c>
-      <c r="G59">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.136</v>
+        <v>13.600000000000001</v>
       </c>
       <c r="C60">
-        <v>0.068</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="D60">
-        <v>0.034</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="E60">
-        <v>0.013600000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="F60">
-        <v>0.0002</v>
-      </c>
-      <c r="G60">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.138</v>
+        <v>13.8</v>
       </c>
       <c r="C61">
-        <v>0.069</v>
+        <v>6.9</v>
       </c>
       <c r="D61">
-        <v>0.0345</v>
+        <v>3.45</v>
       </c>
       <c r="E61">
-        <v>0.0138</v>
+        <v>1.38</v>
       </c>
       <c r="F61">
-        <v>0.0002</v>
-      </c>
-      <c r="G61">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.14</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="C62">
-        <v>0.07</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="D62">
-        <v>0.035</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="E62">
-        <v>0.013999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="F62">
-        <v>0.0002</v>
-      </c>
-      <c r="G62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.142</v>
+        <v>14.2</v>
       </c>
       <c r="C63">
-        <v>0.071</v>
+        <v>7.1</v>
       </c>
       <c r="D63">
-        <v>0.0355</v>
+        <v>3.55</v>
       </c>
       <c r="E63">
-        <v>0.014199999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="F63">
-        <v>0.0002</v>
-      </c>
-      <c r="G63">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.14400000000000002</v>
+        <v>14.400000000000002</v>
       </c>
       <c r="C64">
-        <v>0.07200000000000001</v>
+        <v>7.2000000000000011</v>
       </c>
       <c r="D64">
-        <v>0.036000000000000004</v>
+        <v>3.6000000000000005</v>
       </c>
       <c r="E64">
-        <v>0.0144</v>
+        <v>1.44</v>
       </c>
       <c r="F64">
-        <v>0.0002</v>
-      </c>
-      <c r="G64">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.146</v>
+        <v>14.6</v>
       </c>
       <c r="C65">
-        <v>0.073</v>
+        <v>7.3</v>
       </c>
       <c r="D65">
-        <v>0.0365</v>
+        <v>3.65</v>
       </c>
       <c r="E65">
-        <v>0.0146</v>
+        <v>1.46</v>
       </c>
       <c r="F65">
-        <v>0.0002</v>
-      </c>
-      <c r="G65">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.14800000000000002</v>
+        <v>14.800000000000002</v>
       </c>
       <c r="C66">
-        <v>0.07400000000000001</v>
+        <v>7.4000000000000012</v>
       </c>
       <c r="D66">
-        <v>0.037000000000000005</v>
+        <v>3.7000000000000006</v>
       </c>
       <c r="E66">
-        <v>0.0148</v>
+        <v>1.48</v>
       </c>
       <c r="F66">
-        <v>0.0002</v>
-      </c>
-      <c r="G66">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>0.075</v>
+        <v>7.5</v>
       </c>
       <c r="D67">
-        <v>0.0375</v>
+        <v>3.75</v>
       </c>
       <c r="E67">
-        <v>0.015</v>
+        <v>1.5</v>
       </c>
       <c r="F67">
-        <v>0.0002</v>
-      </c>
-      <c r="G67">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.152</v>
+        <v>15.2</v>
       </c>
       <c r="C68">
-        <v>0.076</v>
+        <v>7.6</v>
       </c>
       <c r="D68">
-        <v>0.038</v>
+        <v>3.8</v>
       </c>
       <c r="E68">
-        <v>0.0152</v>
+        <v>1.52</v>
       </c>
       <c r="F68">
-        <v>0.0002</v>
-      </c>
-      <c r="G68">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.154</v>
+        <v>15.4</v>
       </c>
       <c r="C69">
-        <v>0.077</v>
+        <v>7.7</v>
       </c>
       <c r="D69">
-        <v>0.0385</v>
+        <v>3.85</v>
       </c>
       <c r="E69">
-        <v>0.0154</v>
+        <v>1.54</v>
       </c>
       <c r="F69">
-        <v>0.0002</v>
-      </c>
-      <c r="G69">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.156</v>
+        <v>15.6</v>
       </c>
       <c r="C70">
-        <v>0.078</v>
+        <v>7.8</v>
       </c>
       <c r="D70">
-        <v>0.039</v>
+        <v>3.9</v>
       </c>
       <c r="E70">
-        <v>0.015600000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="F70">
-        <v>0.0002</v>
-      </c>
-      <c r="G70">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.158</v>
+        <v>15.8</v>
       </c>
       <c r="C71">
-        <v>0.079</v>
+        <v>7.9</v>
       </c>
       <c r="D71">
-        <v>0.0395</v>
+        <v>3.95</v>
       </c>
       <c r="E71">
-        <v>0.0158</v>
+        <v>1.58</v>
       </c>
       <c r="F71">
-        <v>0.0002</v>
-      </c>
-      <c r="G71">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="D72">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>0.016</v>
+        <v>1.6</v>
       </c>
       <c r="F72">
-        <v>0.0002</v>
-      </c>
-      <c r="G72">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.162</v>
+        <v>16.2</v>
       </c>
       <c r="C73">
-        <v>0.081</v>
+        <v>8.1</v>
       </c>
       <c r="D73">
-        <v>0.0405</v>
+        <v>4.05</v>
       </c>
       <c r="E73">
-        <v>0.016200000000000003</v>
+        <v>1.6200000000000003</v>
       </c>
       <c r="F73">
-        <v>0.0002</v>
-      </c>
-      <c r="G73">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.16399999999999998</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C74">
-        <v>0.08199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D74">
-        <v>0.040999999999999995</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E74">
-        <v>0.016399999999999998</v>
+        <v>1.6399999999999997</v>
       </c>
       <c r="F74">
-        <v>0.0002</v>
-      </c>
-      <c r="G74">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.166</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C75">
-        <v>0.083</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D75">
-        <v>0.0415</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E75">
-        <v>0.0166</v>
+        <v>1.66</v>
       </c>
       <c r="F75">
-        <v>0.0002</v>
-      </c>
-      <c r="G75">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.168</v>
+        <v>16.8</v>
       </c>
       <c r="C76">
-        <v>0.084</v>
+        <v>8.4</v>
       </c>
       <c r="D76">
-        <v>0.042</v>
+        <v>4.2</v>
       </c>
       <c r="E76">
-        <v>0.0168</v>
+        <v>1.68</v>
       </c>
       <c r="F76">
-        <v>0.0002</v>
-      </c>
-      <c r="G76">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.17</v>
+        <v>17</v>
       </c>
       <c r="C77">
-        <v>0.085</v>
+        <v>8.5</v>
       </c>
       <c r="D77">
-        <v>0.0425</v>
+        <v>4.25</v>
       </c>
       <c r="E77">
-        <v>0.017</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="F77">
-        <v>0.0002</v>
-      </c>
-      <c r="G77">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.172</v>
+        <v>17.2</v>
       </c>
       <c r="C78">
-        <v>0.086</v>
+        <v>8.6</v>
       </c>
       <c r="D78">
-        <v>0.043</v>
+        <v>4.3</v>
       </c>
       <c r="E78">
-        <v>0.0172</v>
+        <v>1.72</v>
       </c>
       <c r="F78">
-        <v>0.0002</v>
-      </c>
-      <c r="G78">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.174</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C79">
-        <v>0.087</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D79">
-        <v>0.0435</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E79">
-        <v>0.0174</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="F79">
-        <v>0.0002</v>
-      </c>
-      <c r="G79">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.17600000000000002</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C80">
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D80">
-        <v>0.044000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E80">
-        <v>0.0176</v>
+        <v>1.76</v>
       </c>
       <c r="F80">
-        <v>0.0002</v>
-      </c>
-      <c r="G80">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.17800000000000002</v>
+        <v>17.8</v>
       </c>
       <c r="C81">
-        <v>0.08900000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="D81">
-        <v>0.044500000000000005</v>
+        <v>4.45</v>
       </c>
       <c r="E81">
-        <v>0.0178</v>
+        <v>1.78</v>
       </c>
       <c r="F81">
-        <v>0.0002</v>
-      </c>
-      <c r="G81">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.18</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="D82">
-        <v>0.045</v>
+        <v>4.5</v>
       </c>
       <c r="E82">
-        <v>0.018000000000000002</v>
+        <v>1.8000000000000003</v>
       </c>
       <c r="F82">
-        <v>0.0002</v>
-      </c>
-      <c r="G82">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.182</v>
+        <v>18.2</v>
       </c>
       <c r="C83">
-        <v>0.091</v>
+        <v>9.1</v>
       </c>
       <c r="D83">
-        <v>0.0455</v>
+        <v>4.55</v>
       </c>
       <c r="E83">
-        <v>0.0182</v>
+        <v>1.82</v>
       </c>
       <c r="F83">
-        <v>0.0002</v>
-      </c>
-      <c r="G83">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.184</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C84">
-        <v>0.092</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D84">
-        <v>0.046</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E84">
-        <v>0.0184</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="F84">
-        <v>0.0002</v>
-      </c>
-      <c r="G84">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.18600000000000003</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="C85">
-        <v>0.09300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D85">
-        <v>0.04650000000000001</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E85">
-        <v>0.018600000000000002</v>
+        <v>1.86</v>
       </c>
       <c r="F85">
-        <v>0.0002</v>
-      </c>
-      <c r="G85">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.188</v>
+        <v>18.8</v>
       </c>
       <c r="C86">
-        <v>0.094</v>
+        <v>9.4</v>
       </c>
       <c r="D86">
-        <v>0.047</v>
+        <v>4.7</v>
       </c>
       <c r="E86">
-        <v>0.018799999999999997</v>
+        <v>1.8799999999999997</v>
       </c>
       <c r="F86">
-        <v>0.0002</v>
-      </c>
-      <c r="G86">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.19</v>
+        <v>19</v>
       </c>
       <c r="C87">
-        <v>0.095</v>
+        <v>9.5</v>
       </c>
       <c r="D87">
-        <v>0.0475</v>
+        <v>4.75</v>
       </c>
       <c r="E87">
-        <v>0.019</v>
+        <v>1.9</v>
       </c>
       <c r="F87">
-        <v>0.0002</v>
-      </c>
-      <c r="G87">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.192</v>
+        <v>19.2</v>
       </c>
       <c r="C88">
-        <v>0.096</v>
+        <v>9.6</v>
       </c>
       <c r="D88">
-        <v>0.048</v>
+        <v>4.8</v>
       </c>
       <c r="E88">
-        <v>0.0192</v>
+        <v>1.92</v>
       </c>
       <c r="F88">
-        <v>0.0002</v>
-      </c>
-      <c r="G88">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.19399999999999998</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C89">
-        <v>0.09699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D89">
-        <v>0.048499999999999995</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="E89">
-        <v>0.0194</v>
+        <v>1.94</v>
       </c>
       <c r="F89">
-        <v>0.0002</v>
-      </c>
-      <c r="G89">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.196</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C90">
-        <v>0.098</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D90">
-        <v>0.049</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E90">
-        <v>0.0196</v>
+        <v>1.96</v>
       </c>
       <c r="F90">
-        <v>0.0002</v>
-      </c>
-      <c r="G90">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.198</v>
+        <v>19.8</v>
       </c>
       <c r="C91">
-        <v>0.099</v>
+        <v>9.9</v>
       </c>
       <c r="D91">
-        <v>0.0495</v>
+        <v>4.95</v>
       </c>
       <c r="E91">
-        <v>0.019799999999999998</v>
+        <v>1.9799999999999998</v>
       </c>
       <c r="F91">
-        <v>0.0002</v>
-      </c>
-      <c r="G91">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="C92">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="E92">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>0.0003</v>
-      </c>
-      <c r="G92">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.20199999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="C93">
-        <v>0.10099999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="D93">
-        <v>0.050499999999999996</v>
+        <v>5.05</v>
       </c>
       <c r="E93">
-        <v>0.0202</v>
+        <v>2.02</v>
       </c>
       <c r="F93">
-        <v>0.0003</v>
-      </c>
-      <c r="G93">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.204</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="C94">
-        <v>0.102</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D94">
-        <v>0.051</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E94">
-        <v>0.0204</v>
+        <v>2.04</v>
       </c>
       <c r="F94">
-        <v>0.0003</v>
-      </c>
-      <c r="G94">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.20600000000000002</v>
+        <v>20.6</v>
       </c>
       <c r="C95">
-        <v>0.10300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="D95">
-        <v>0.051500000000000004</v>
+        <v>5.15</v>
       </c>
       <c r="E95">
-        <v>0.0206</v>
+        <v>2.06</v>
       </c>
       <c r="F95">
-        <v>0.0003</v>
-      </c>
-      <c r="G95">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.20800000000000002</v>
+        <v>20.8</v>
       </c>
       <c r="C96">
-        <v>0.10400000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="D96">
-        <v>0.052000000000000005</v>
+        <v>5.2</v>
       </c>
       <c r="E96">
-        <v>0.0208</v>
+        <v>2.08</v>
       </c>
       <c r="F96">
-        <v>0.0003</v>
-      </c>
-      <c r="G96">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.21</v>
+        <v>21</v>
       </c>
       <c r="C97">
-        <v>0.105</v>
+        <v>10.5</v>
       </c>
       <c r="D97">
-        <v>0.0525</v>
+        <v>5.25</v>
       </c>
       <c r="E97">
-        <v>0.021</v>
+        <v>2.1</v>
       </c>
       <c r="F97">
-        <v>0.0003</v>
-      </c>
-      <c r="G97">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.212</v>
+        <v>21.2</v>
       </c>
       <c r="C98">
-        <v>0.106</v>
+        <v>10.6</v>
       </c>
       <c r="D98">
-        <v>0.053</v>
+        <v>5.3</v>
       </c>
       <c r="E98">
-        <v>0.0212</v>
+        <v>2.12</v>
       </c>
       <c r="F98">
-        <v>0.0003</v>
-      </c>
-      <c r="G98">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.214</v>
+        <v>21.4</v>
       </c>
       <c r="C99">
-        <v>0.107</v>
+        <v>10.7</v>
       </c>
       <c r="D99">
-        <v>0.0535</v>
+        <v>5.35</v>
       </c>
       <c r="E99">
-        <v>0.021400000000000002</v>
+        <v>2.14</v>
       </c>
       <c r="F99">
-        <v>0.0003</v>
-      </c>
-      <c r="G99">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.21600000000000003</v>
+        <v>21.6</v>
       </c>
       <c r="C100">
-        <v>0.10800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="D100">
-        <v>0.054000000000000006</v>
+        <v>5.4</v>
       </c>
       <c r="E100">
-        <v>0.0216</v>
+        <v>2.16</v>
       </c>
       <c r="F100">
-        <v>0.0003</v>
-      </c>
-      <c r="G100">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.218</v>
+        <v>21.8</v>
       </c>
       <c r="C101">
-        <v>0.109</v>
+        <v>10.9</v>
       </c>
       <c r="D101">
-        <v>0.0545</v>
+        <v>5.45</v>
       </c>
       <c r="E101">
-        <v>0.0218</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F101">
-        <v>0.0003</v>
-      </c>
-      <c r="G101">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.22</v>
+        <v>22</v>
       </c>
       <c r="C102">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>0.055</v>
+        <v>5.5</v>
       </c>
       <c r="E102">
-        <v>0.022000000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F102">
-        <v>0.0003</v>
-      </c>
-      <c r="G102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.222</v>
+        <v>22.2</v>
       </c>
       <c r="C103">
-        <v>0.111</v>
+        <v>11.1</v>
       </c>
       <c r="D103">
-        <v>0.0555</v>
+        <v>5.55</v>
       </c>
       <c r="E103">
-        <v>0.0222</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F103">
-        <v>0.0003</v>
-      </c>
-      <c r="G103">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.22399999999999998</v>
+        <v>22.4</v>
       </c>
       <c r="C104">
-        <v>0.11199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="D104">
-        <v>0.055999999999999994</v>
+        <v>5.6</v>
       </c>
       <c r="E104">
-        <v>0.022400000000000003</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="F104">
-        <v>0.0003</v>
-      </c>
-      <c r="G104">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.226</v>
+        <v>22.6</v>
       </c>
       <c r="C105">
-        <v>0.113</v>
+        <v>11.3</v>
       </c>
       <c r="D105">
-        <v>0.0565</v>
+        <v>5.65</v>
       </c>
       <c r="E105">
-        <v>0.0226</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F105">
-        <v>0.0003</v>
-      </c>
-      <c r="G105">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.228</v>
+        <v>22.8</v>
       </c>
       <c r="C106">
-        <v>0.114</v>
+        <v>11.4</v>
       </c>
       <c r="D106">
-        <v>0.057</v>
+        <v>5.7</v>
       </c>
       <c r="E106">
-        <v>0.022799999999999997</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F106">
-        <v>0.0003</v>
-      </c>
-      <c r="G106">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.23</v>
+        <v>23</v>
       </c>
       <c r="C107">
-        <v>0.115</v>
+        <v>11.5</v>
       </c>
       <c r="D107">
-        <v>0.0575</v>
+        <v>5.75</v>
       </c>
       <c r="E107">
-        <v>0.023</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F107">
-        <v>0.0003</v>
-      </c>
-      <c r="G107">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.23199999999999998</v>
+        <v>23.2</v>
       </c>
       <c r="C108">
-        <v>0.11599999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="D108">
-        <v>0.057999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="E108">
-        <v>0.0232</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="F108">
-        <v>0.0003</v>
-      </c>
-      <c r="G108">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.23399999999999999</v>
+        <v>23.4</v>
       </c>
       <c r="C109">
-        <v>0.11699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="D109">
-        <v>0.058499999999999996</v>
+        <v>5.85</v>
       </c>
       <c r="E109">
-        <v>0.023399999999999997</v>
+        <v>2.34</v>
       </c>
       <c r="F109">
-        <v>0.0003</v>
-      </c>
-      <c r="G109">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.23600000000000002</v>
+        <v>23.6</v>
       </c>
       <c r="C110">
-        <v>0.11800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="D110">
-        <v>0.059000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="E110">
-        <v>0.0236</v>
+        <v>2.36</v>
       </c>
       <c r="F110">
-        <v>0.0003</v>
-      </c>
-      <c r="G110">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.23800000000000002</v>
+        <v>23.8</v>
       </c>
       <c r="C111">
-        <v>0.11900000000000001</v>
+        <v>11.9</v>
       </c>
       <c r="D111">
-        <v>0.059500000000000004</v>
+        <v>5.95</v>
       </c>
       <c r="E111">
-        <v>0.023799999999999998</v>
+        <v>2.38</v>
       </c>
       <c r="F111">
-        <v>0.0003</v>
-      </c>
-      <c r="G111">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.24</v>
+        <v>24</v>
       </c>
       <c r="C112">
-        <v>0.12</v>
+        <v>12</v>
       </c>
       <c r="D112">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="E112">
-        <v>0.024</v>
+        <v>2.4</v>
       </c>
       <c r="F112">
-        <v>0.0003</v>
-      </c>
-      <c r="G112">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.242</v>
+        <v>24.2</v>
       </c>
       <c r="C113">
-        <v>0.121</v>
+        <v>12.1</v>
       </c>
       <c r="D113">
-        <v>0.0605</v>
+        <v>6.05</v>
       </c>
       <c r="E113">
-        <v>0.0242</v>
+        <v>2.42</v>
       </c>
       <c r="F113">
-        <v>0.0003</v>
-      </c>
-      <c r="G113">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.244</v>
+        <v>24.4</v>
       </c>
       <c r="C114">
-        <v>0.122</v>
+        <v>12.2</v>
       </c>
       <c r="D114">
-        <v>0.061</v>
+        <v>6.1</v>
       </c>
       <c r="E114">
-        <v>0.024399999999999998</v>
+        <v>2.44</v>
       </c>
       <c r="F114">
-        <v>0.0003</v>
-      </c>
-      <c r="G114">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.24600000000000002</v>
+        <v>24.6</v>
       </c>
       <c r="C115">
-        <v>0.12300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="D115">
-        <v>0.061500000000000006</v>
+        <v>6.15</v>
       </c>
       <c r="E115">
-        <v>0.0246</v>
+        <v>2.46</v>
       </c>
       <c r="F115">
-        <v>0.0003</v>
-      </c>
-      <c r="G115">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.248</v>
+        <v>24.8</v>
       </c>
       <c r="C116">
-        <v>0.124</v>
+        <v>12.4</v>
       </c>
       <c r="D116">
-        <v>0.062</v>
+        <v>6.2</v>
       </c>
       <c r="E116">
-        <v>0.0248</v>
+        <v>2.48</v>
       </c>
       <c r="F116">
-        <v>0.0003</v>
-      </c>
-      <c r="G116">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.25</v>
+        <v>25</v>
       </c>
       <c r="C117">
-        <v>0.125</v>
+        <v>12.5</v>
       </c>
       <c r="D117">
-        <v>0.0625</v>
+        <v>6.25</v>
       </c>
       <c r="E117">
-        <v>0.025</v>
+        <v>2.5</v>
       </c>
       <c r="F117">
-        <v>0.0003</v>
-      </c>
-      <c r="G117">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.252</v>
+        <v>25.2</v>
       </c>
       <c r="C118">
-        <v>0.126</v>
+        <v>12.6</v>
       </c>
       <c r="D118">
-        <v>0.063</v>
+        <v>6.3</v>
       </c>
       <c r="E118">
-        <v>0.0252</v>
+        <v>2.52</v>
       </c>
       <c r="F118">
-        <v>0.0003</v>
-      </c>
-      <c r="G118">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.254</v>
+        <v>25.4</v>
       </c>
       <c r="C119">
-        <v>0.127</v>
+        <v>12.7</v>
       </c>
       <c r="D119">
-        <v>0.0635</v>
+        <v>6.35</v>
       </c>
       <c r="E119">
-        <v>0.0254</v>
+        <v>2.54</v>
       </c>
       <c r="F119">
-        <v>0.0003</v>
-      </c>
-      <c r="G119">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.256</v>
+        <v>25.6</v>
       </c>
       <c r="C120">
-        <v>0.128</v>
+        <v>12.8</v>
       </c>
       <c r="D120">
-        <v>0.064</v>
+        <v>6.4</v>
       </c>
       <c r="E120">
-        <v>0.0256</v>
+        <v>2.56</v>
       </c>
       <c r="F120">
-        <v>0.0003</v>
-      </c>
-      <c r="G120">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.258</v>
+        <v>25.8</v>
       </c>
       <c r="C121">
-        <v>0.129</v>
+        <v>12.9</v>
       </c>
       <c r="D121">
-        <v>0.0645</v>
+        <v>6.45</v>
       </c>
       <c r="E121">
-        <v>0.0258</v>
+        <v>2.58</v>
       </c>
       <c r="F121">
-        <v>0.0003</v>
-      </c>
-      <c r="G121">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.26</v>
+        <v>26</v>
       </c>
       <c r="C122">
-        <v>0.13</v>
+        <v>13</v>
       </c>
       <c r="D122">
-        <v>0.065</v>
+        <v>6.5</v>
       </c>
       <c r="E122">
-        <v>0.026000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="F122">
-        <v>0.0003</v>
-      </c>
-      <c r="G122">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.262</v>
+        <v>26.200000000000003</v>
       </c>
       <c r="C123">
-        <v>0.131</v>
+        <v>13.100000000000001</v>
       </c>
       <c r="D123">
-        <v>0.0655</v>
+        <v>6.5500000000000007</v>
       </c>
       <c r="E123">
-        <v>0.0262</v>
+        <v>2.62</v>
       </c>
       <c r="F123">
-        <v>0.0003</v>
-      </c>
-      <c r="G123">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.264</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="C124">
-        <v>0.132</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="D124">
-        <v>0.066</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="E124">
-        <v>0.0264</v>
+        <v>2.64</v>
       </c>
       <c r="F124">
-        <v>0.0003</v>
-      </c>
-      <c r="G124">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.266</v>
+        <v>26.6</v>
       </c>
       <c r="C125">
-        <v>0.133</v>
+        <v>13.3</v>
       </c>
       <c r="D125">
-        <v>0.0665</v>
+        <v>6.65</v>
       </c>
       <c r="E125">
-        <v>0.026600000000000002</v>
+        <v>2.66</v>
       </c>
       <c r="F125">
-        <v>0.0003</v>
-      </c>
-      <c r="G125">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.268</v>
+        <v>26.8</v>
       </c>
       <c r="C126">
-        <v>0.134</v>
+        <v>13.4</v>
       </c>
       <c r="D126">
-        <v>0.067</v>
+        <v>6.7</v>
       </c>
       <c r="E126">
-        <v>0.0268</v>
+        <v>2.68</v>
       </c>
       <c r="F126">
-        <v>0.0003</v>
-      </c>
-      <c r="G126">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.27</v>
+        <v>27</v>
       </c>
       <c r="C127">
-        <v>0.135</v>
+        <v>13.5</v>
       </c>
       <c r="D127">
-        <v>0.0675</v>
+        <v>6.75</v>
       </c>
       <c r="E127">
-        <v>0.027000000000000003</v>
+        <v>2.7</v>
       </c>
       <c r="F127">
-        <v>0.0003</v>
-      </c>
-      <c r="G127">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.272</v>
+        <v>27.200000000000003</v>
       </c>
       <c r="C128">
-        <v>0.136</v>
+        <v>13.600000000000001</v>
       </c>
       <c r="D128">
-        <v>0.068</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="E128">
-        <v>0.027200000000000002</v>
+        <v>2.72</v>
       </c>
       <c r="F128">
-        <v>0.0003</v>
-      </c>
-      <c r="G128">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.27399999999999997</v>
+        <v>27.399999999999995</v>
       </c>
       <c r="C129">
-        <v>0.13699999999999998</v>
+        <v>13.699999999999998</v>
       </c>
       <c r="D129">
-        <v>0.06849999999999999</v>
+        <v>6.8499999999999988</v>
       </c>
       <c r="E129">
-        <v>0.0274</v>
+        <v>2.74</v>
       </c>
       <c r="F129">
-        <v>0.0003</v>
-      </c>
-      <c r="G129">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.276</v>
+        <v>27.6</v>
       </c>
       <c r="C130">
-        <v>0.138</v>
+        <v>13.8</v>
       </c>
       <c r="D130">
-        <v>0.069</v>
+        <v>6.9</v>
       </c>
       <c r="E130">
-        <v>0.0276</v>
+        <v>2.76</v>
       </c>
       <c r="F130">
-        <v>0.0003</v>
-      </c>
-      <c r="G130">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.278</v>
+        <v>27.800000000000004</v>
       </c>
       <c r="C131">
-        <v>0.139</v>
+        <v>13.900000000000002</v>
       </c>
       <c r="D131">
-        <v>0.0695</v>
+        <v>6.9500000000000011</v>
       </c>
       <c r="E131">
-        <v>0.0278</v>
+        <v>2.78</v>
       </c>
       <c r="F131">
-        <v>0.0003</v>
-      </c>
-      <c r="G131">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.28</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="C132">
-        <v>0.14</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="D132">
-        <v>0.07</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="E132">
-        <v>0.027999999999999997</v>
+        <v>2.8</v>
       </c>
       <c r="F132">
-        <v>0.0004</v>
-      </c>
-      <c r="G132">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.282</v>
+        <v>28.199999999999996</v>
       </c>
       <c r="C133">
-        <v>0.141</v>
+        <v>14.099999999999998</v>
       </c>
       <c r="D133">
-        <v>0.0705</v>
+        <v>7.0499999999999989</v>
       </c>
       <c r="E133">
-        <v>0.0282</v>
+        <v>2.82</v>
       </c>
       <c r="F133">
-        <v>0.0004</v>
-      </c>
-      <c r="G133">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.284</v>
+        <v>28.4</v>
       </c>
       <c r="C134">
-        <v>0.142</v>
+        <v>14.2</v>
       </c>
       <c r="D134">
-        <v>0.071</v>
+        <v>7.1</v>
       </c>
       <c r="E134">
-        <v>0.028399999999999998</v>
+        <v>2.84</v>
       </c>
       <c r="F134">
-        <v>0.0004</v>
-      </c>
-      <c r="G134">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.28600000000000003</v>
+        <v>28.6</v>
       </c>
       <c r="C135">
-        <v>0.14300000000000002</v>
+        <v>14.3</v>
       </c>
       <c r="D135">
-        <v>0.07150000000000001</v>
+        <v>7.15</v>
       </c>
       <c r="E135">
-        <v>0.0286</v>
+        <v>2.86</v>
       </c>
       <c r="F135">
-        <v>0.0004</v>
-      </c>
-      <c r="G135">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.28800000000000003</v>
+        <v>28.800000000000004</v>
       </c>
       <c r="C136">
-        <v>0.14400000000000002</v>
+        <v>14.400000000000002</v>
       </c>
       <c r="D136">
-        <v>0.07200000000000001</v>
+        <v>7.2000000000000011</v>
       </c>
       <c r="E136">
-        <v>0.0288</v>
+        <v>2.88</v>
       </c>
       <c r="F136">
-        <v>0.0004</v>
-      </c>
-      <c r="G136">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.29</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="C137">
-        <v>0.145</v>
+        <v>14.499999999999998</v>
       </c>
       <c r="D137">
-        <v>0.0725</v>
+        <v>7.2499999999999991</v>
       </c>
       <c r="E137">
-        <v>0.028999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="F137">
-        <v>0.0004</v>
-      </c>
-      <c r="G137">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.292</v>
+        <v>29.2</v>
       </c>
       <c r="C138">
-        <v>0.146</v>
+        <v>14.6</v>
       </c>
       <c r="D138">
-        <v>0.073</v>
+        <v>7.3</v>
       </c>
       <c r="E138">
-        <v>0.0292</v>
+        <v>2.92</v>
       </c>
       <c r="F138">
-        <v>0.0004</v>
-      </c>
-      <c r="G138">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.294</v>
+        <v>29.4</v>
       </c>
       <c r="C139">
-        <v>0.147</v>
+        <v>14.7</v>
       </c>
       <c r="D139">
-        <v>0.0735</v>
+        <v>7.35</v>
       </c>
       <c r="E139">
-        <v>0.0294</v>
+        <v>2.94</v>
       </c>
       <c r="F139">
-        <v>0.0004</v>
-      </c>
-      <c r="G139">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.29600000000000004</v>
+        <v>29.600000000000005</v>
       </c>
       <c r="C140">
-        <v>0.14800000000000002</v>
+        <v>14.800000000000002</v>
       </c>
       <c r="D140">
-        <v>0.07400000000000001</v>
+        <v>7.4000000000000012</v>
       </c>
       <c r="E140">
-        <v>0.0296</v>
+        <v>2.96</v>
       </c>
       <c r="F140">
-        <v>0.0004</v>
-      </c>
-      <c r="G140">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.298</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="C141">
-        <v>0.149</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="D141">
-        <v>0.0745</v>
+        <v>7.4499999999999993</v>
       </c>
       <c r="E141">
-        <v>0.0298</v>
+        <v>2.98</v>
       </c>
       <c r="F141">
-        <v>0.0004</v>
-      </c>
-      <c r="G141">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.3</v>
+        <v>30</v>
       </c>
       <c r="C142">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="D142">
-        <v>0.075</v>
+        <v>7.5</v>
       </c>
       <c r="E142">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="F142">
-        <v>0.0004</v>
-      </c>
-      <c r="G142">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.302</v>
+        <v>30.2</v>
       </c>
       <c r="C143">
-        <v>0.151</v>
+        <v>15.1</v>
       </c>
       <c r="D143">
-        <v>0.0755</v>
+        <v>7.55</v>
       </c>
       <c r="E143">
-        <v>0.0302</v>
+        <v>3.02</v>
       </c>
       <c r="F143">
-        <v>0.0004</v>
-      </c>
-      <c r="G143">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.304</v>
+        <v>30.4</v>
       </c>
       <c r="C144">
-        <v>0.152</v>
+        <v>15.2</v>
       </c>
       <c r="D144">
-        <v>0.076</v>
+        <v>7.6</v>
       </c>
       <c r="E144">
-        <v>0.0304</v>
+        <v>3.04</v>
       </c>
       <c r="F144">
-        <v>0.0004</v>
-      </c>
-      <c r="G144">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.306</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="C145">
-        <v>0.153</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="D145">
-        <v>0.0765</v>
+        <v>7.6499999999999995</v>
       </c>
       <c r="E145">
-        <v>0.030600000000000002</v>
+        <v>3.06</v>
       </c>
       <c r="F145">
-        <v>0.0004</v>
-      </c>
-      <c r="G145">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.308</v>
+        <v>30.8</v>
       </c>
       <c r="C146">
-        <v>0.154</v>
+        <v>15.4</v>
       </c>
       <c r="D146">
-        <v>0.077</v>
+        <v>7.7</v>
       </c>
       <c r="E146">
-        <v>0.0308</v>
+        <v>3.08</v>
       </c>
       <c r="F146">
-        <v>0.0004</v>
-      </c>
-      <c r="G146">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.31</v>
+        <v>31</v>
       </c>
       <c r="C147">
-        <v>0.155</v>
+        <v>15.5</v>
       </c>
       <c r="D147">
-        <v>0.0775</v>
+        <v>7.75</v>
       </c>
       <c r="E147">
-        <v>0.031</v>
+        <v>3.1</v>
       </c>
       <c r="F147">
-        <v>0.0004</v>
-      </c>
-      <c r="G147">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.312</v>
+        <v>31.2</v>
       </c>
       <c r="C148">
-        <v>0.156</v>
+        <v>15.6</v>
       </c>
       <c r="D148">
-        <v>0.078</v>
+        <v>7.8</v>
       </c>
       <c r="E148">
-        <v>0.031200000000000002</v>
+        <v>3.12</v>
       </c>
       <c r="F148">
-        <v>0.0004</v>
-      </c>
-      <c r="G148">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.314</v>
+        <v>31.4</v>
       </c>
       <c r="C149">
-        <v>0.157</v>
+        <v>15.7</v>
       </c>
       <c r="D149">
-        <v>0.0785</v>
+        <v>7.85</v>
       </c>
       <c r="E149">
-        <v>0.031400000000000004</v>
+        <v>3.1400000000000006</v>
       </c>
       <c r="F149">
-        <v>0.0004</v>
-      </c>
-      <c r="G149">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.316</v>
+        <v>31.6</v>
       </c>
       <c r="C150">
-        <v>0.158</v>
+        <v>15.8</v>
       </c>
       <c r="D150">
-        <v>0.079</v>
+        <v>7.9</v>
       </c>
       <c r="E150">
-        <v>0.0316</v>
+        <v>3.16</v>
       </c>
       <c r="F150">
-        <v>0.0004</v>
-      </c>
-      <c r="G150">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.318</v>
+        <v>31.8</v>
       </c>
       <c r="C151">
-        <v>0.159</v>
+        <v>15.9</v>
       </c>
       <c r="D151">
-        <v>0.0795</v>
+        <v>7.95</v>
       </c>
       <c r="E151">
-        <v>0.0318</v>
+        <v>3.18</v>
       </c>
       <c r="F151">
-        <v>0.0004</v>
-      </c>
-      <c r="G151">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="C152">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="D152">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="E152">
-        <v>0.032</v>
+        <v>3.2</v>
       </c>
       <c r="F152">
-        <v>0.0004</v>
-      </c>
-      <c r="G152">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.322</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="C153">
-        <v>0.161</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D153">
-        <v>0.0805</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E153">
-        <v>0.0322</v>
+        <v>3.2199999999999998</v>
       </c>
       <c r="F153">
-        <v>0.0004</v>
-      </c>
-      <c r="G153">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.324</v>
+        <v>32.4</v>
       </c>
       <c r="C154">
-        <v>0.162</v>
+        <v>16.2</v>
       </c>
       <c r="D154">
-        <v>0.081</v>
+        <v>8.1</v>
       </c>
       <c r="E154">
-        <v>0.032400000000000005</v>
+        <v>3.2400000000000007</v>
       </c>
       <c r="F154">
-        <v>0.0004</v>
-      </c>
-      <c r="G154">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.326</v>
+        <v>32.6</v>
       </c>
       <c r="C155">
-        <v>0.163</v>
+        <v>16.3</v>
       </c>
       <c r="D155">
-        <v>0.0815</v>
+        <v>8.15</v>
       </c>
       <c r="E155">
-        <v>0.0326</v>
+        <v>3.26</v>
       </c>
       <c r="F155">
-        <v>0.0004</v>
-      </c>
-      <c r="G155">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.32799999999999996</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="C156">
-        <v>0.16399999999999998</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D156">
-        <v>0.08199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E156">
-        <v>0.032799999999999996</v>
+        <v>3.2799999999999994</v>
       </c>
       <c r="F156">
-        <v>0.0004</v>
-      </c>
-      <c r="G156">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.33</v>
+        <v>33</v>
       </c>
       <c r="C157">
-        <v>0.165</v>
+        <v>16.5</v>
       </c>
       <c r="D157">
-        <v>0.0825</v>
+        <v>8.25</v>
       </c>
       <c r="E157">
-        <v>0.033</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="F157">
-        <v>0.0004</v>
-      </c>
-      <c r="G157">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.332</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="C158">
-        <v>0.166</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D158">
-        <v>0.083</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E158">
-        <v>0.0332</v>
+        <v>3.32</v>
       </c>
       <c r="F158">
-        <v>0.0004</v>
-      </c>
-      <c r="G158">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.33399999999999996</v>
+        <v>33.4</v>
       </c>
       <c r="C159">
-        <v>0.16699999999999998</v>
+        <v>16.7</v>
       </c>
       <c r="D159">
-        <v>0.08349999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="E159">
-        <v>0.0334</v>
+        <v>3.34</v>
       </c>
       <c r="F159">
-        <v>0.0004</v>
-      </c>
-      <c r="G159">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.336</v>
+        <v>33.6</v>
       </c>
       <c r="C160">
-        <v>0.168</v>
+        <v>16.8</v>
       </c>
       <c r="D160">
-        <v>0.084</v>
+        <v>8.4</v>
       </c>
       <c r="E160">
-        <v>0.0336</v>
+        <v>3.36</v>
       </c>
       <c r="F160">
-        <v>0.0004</v>
-      </c>
-      <c r="G160">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.33799999999999997</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C161">
-        <v>0.16899999999999998</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D161">
-        <v>0.08449999999999999</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="E161">
-        <v>0.0338</v>
+        <v>3.38</v>
       </c>
       <c r="F161">
-        <v>0.0004</v>
-      </c>
-      <c r="G161">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.34</v>
+        <v>34</v>
       </c>
       <c r="C162">
-        <v>0.17</v>
+        <v>17</v>
       </c>
       <c r="D162">
-        <v>0.085</v>
+        <v>8.5</v>
       </c>
       <c r="E162">
-        <v>0.034</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="F162">
-        <v>0.0004</v>
-      </c>
-      <c r="G162">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.342</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C163">
-        <v>0.171</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D163">
-        <v>0.0855</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E163">
-        <v>0.0342</v>
+        <v>3.42</v>
       </c>
       <c r="F163">
-        <v>0.0004</v>
-      </c>
-      <c r="G163">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.344</v>
+        <v>34.4</v>
       </c>
       <c r="C164">
-        <v>0.172</v>
+        <v>17.2</v>
       </c>
       <c r="D164">
-        <v>0.086</v>
+        <v>8.6</v>
       </c>
       <c r="E164">
-        <v>0.0344</v>
+        <v>3.44</v>
       </c>
       <c r="F164">
-        <v>0.0004</v>
-      </c>
-      <c r="G164">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.34600000000000003</v>
+        <v>34.6</v>
       </c>
       <c r="C165">
-        <v>0.17300000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="D165">
-        <v>0.08650000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="E165">
-        <v>0.0346</v>
+        <v>3.46</v>
       </c>
       <c r="F165">
-        <v>0.0004</v>
-      </c>
-      <c r="G165">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.348</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="C166">
-        <v>0.174</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D166">
-        <v>0.087</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E166">
-        <v>0.0348</v>
+        <v>3.4799999999999995</v>
       </c>
       <c r="F166">
-        <v>0.0004</v>
-      </c>
-      <c r="G166">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.35</v>
+        <v>35</v>
       </c>
       <c r="C167">
-        <v>0.175</v>
+        <v>17.5</v>
       </c>
       <c r="D167">
-        <v>0.0875</v>
+        <v>8.75</v>
       </c>
       <c r="E167">
-        <v>0.035</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="F167">
-        <v>0.0004</v>
-      </c>
-      <c r="G167">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.35200000000000004</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="C168">
-        <v>0.17600000000000002</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D168">
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E168">
-        <v>0.0352</v>
+        <v>3.52</v>
       </c>
       <c r="F168">
-        <v>0.0004</v>
-      </c>
-      <c r="G168">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.354</v>
+        <v>35.4</v>
       </c>
       <c r="C169">
-        <v>0.177</v>
+        <v>17.7</v>
       </c>
       <c r="D169">
-        <v>0.0885</v>
+        <v>8.85</v>
       </c>
       <c r="E169">
-        <v>0.0354</v>
+        <v>3.54</v>
       </c>
       <c r="F169">
-        <v>0.0004</v>
-      </c>
-      <c r="G169">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.35600000000000004</v>
+        <v>35.6</v>
       </c>
       <c r="C170">
-        <v>0.17800000000000002</v>
+        <v>17.8</v>
       </c>
       <c r="D170">
-        <v>0.08900000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="E170">
-        <v>0.0356</v>
+        <v>3.56</v>
       </c>
       <c r="F170">
-        <v>0.0004</v>
-      </c>
-      <c r="G170">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.358</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="C171">
-        <v>0.179</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D171">
-        <v>0.0895</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E171">
-        <v>0.0358</v>
+        <v>3.58</v>
       </c>
       <c r="F171">
-        <v>0.0004</v>
-      </c>
-      <c r="G171">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.36</v>
+        <v>36</v>
       </c>
       <c r="C172">
-        <v>0.18</v>
+        <v>18</v>
       </c>
       <c r="D172">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="E172">
-        <v>0.036000000000000004</v>
+        <v>3.6000000000000005</v>
       </c>
       <c r="F172">
-        <v>0.0005</v>
-      </c>
-      <c r="G172">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.36200000000000004</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="C173">
-        <v>0.18100000000000002</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D173">
-        <v>0.09050000000000001</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="E173">
-        <v>0.0362</v>
+        <v>3.62</v>
       </c>
       <c r="F173">
-        <v>0.0005</v>
-      </c>
-      <c r="G173">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.364</v>
+        <v>36.4</v>
       </c>
       <c r="C174">
-        <v>0.182</v>
+        <v>18.2</v>
       </c>
       <c r="D174">
-        <v>0.091</v>
+        <v>9.1</v>
       </c>
       <c r="E174">
-        <v>0.0364</v>
+        <v>3.64</v>
       </c>
       <c r="F174">
-        <v>0.0005</v>
-      </c>
-      <c r="G174">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.366</v>
+        <v>36.6</v>
       </c>
       <c r="C175">
-        <v>0.183</v>
+        <v>18.3</v>
       </c>
       <c r="D175">
-        <v>0.0915</v>
+        <v>9.15</v>
       </c>
       <c r="E175">
-        <v>0.0366</v>
+        <v>3.66</v>
       </c>
       <c r="F175">
-        <v>0.0005</v>
-      </c>
-      <c r="G175">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.368</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="C176">
-        <v>0.184</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D176">
-        <v>0.092</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E176">
-        <v>0.0368</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="F176">
-        <v>0.0005</v>
-      </c>
-      <c r="G176">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.37</v>
+        <v>37</v>
       </c>
       <c r="C177">
-        <v>0.185</v>
+        <v>18.5</v>
       </c>
       <c r="D177">
-        <v>0.0925</v>
+        <v>9.25</v>
       </c>
       <c r="E177">
-        <v>0.037000000000000005</v>
+        <v>3.7000000000000006</v>
       </c>
       <c r="F177">
-        <v>0.0005</v>
-      </c>
-      <c r="G177">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.37200000000000005</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C178">
-        <v>0.18600000000000003</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D178">
-        <v>0.09300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E178">
-        <v>0.037200000000000004</v>
+        <v>3.72</v>
       </c>
       <c r="F178">
-        <v>0.0005</v>
-      </c>
-      <c r="G178">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.374</v>
+        <v>37.4</v>
       </c>
       <c r="C179">
-        <v>0.187</v>
+        <v>18.7</v>
       </c>
       <c r="D179">
-        <v>0.0935</v>
+        <v>9.35</v>
       </c>
       <c r="E179">
-        <v>0.0374</v>
+        <v>3.74</v>
       </c>
       <c r="F179">
-        <v>0.0005</v>
-      </c>
-      <c r="G179">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.376</v>
+        <v>37.6</v>
       </c>
       <c r="C180">
-        <v>0.188</v>
+        <v>18.8</v>
       </c>
       <c r="D180">
-        <v>0.094</v>
+        <v>9.4</v>
       </c>
       <c r="E180">
-        <v>0.037599999999999995</v>
+        <v>3.7599999999999993</v>
       </c>
       <c r="F180">
-        <v>0.0005</v>
-      </c>
-      <c r="G180">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.37799999999999995</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="C181">
-        <v>0.18899999999999997</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D181">
-        <v>0.09449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="E181">
-        <v>0.0378</v>
+        <v>3.7800000000000002</v>
       </c>
       <c r="F181">
-        <v>0.0005</v>
-      </c>
-      <c r="G181">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.38</v>
+        <v>38</v>
       </c>
       <c r="C182">
-        <v>0.19</v>
+        <v>19</v>
       </c>
       <c r="D182">
-        <v>0.095</v>
+        <v>9.5</v>
       </c>
       <c r="E182">
-        <v>0.038</v>
+        <v>3.8</v>
       </c>
       <c r="F182">
-        <v>0.0005</v>
-      </c>
-      <c r="G182">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.382</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="C183">
-        <v>0.191</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D183">
-        <v>0.0955</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="E183">
-        <v>0.0382</v>
+        <v>3.82</v>
       </c>
       <c r="F183">
-        <v>0.0005</v>
-      </c>
-      <c r="G183">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.384</v>
+        <v>38.4</v>
       </c>
       <c r="C184">
-        <v>0.192</v>
+        <v>19.2</v>
       </c>
       <c r="D184">
-        <v>0.096</v>
+        <v>9.6</v>
       </c>
       <c r="E184">
-        <v>0.0384</v>
+        <v>3.84</v>
       </c>
       <c r="F184">
-        <v>0.0005</v>
-      </c>
-      <c r="G184">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.386</v>
+        <v>38.6</v>
       </c>
       <c r="C185">
-        <v>0.193</v>
+        <v>19.3</v>
       </c>
       <c r="D185">
-        <v>0.0965</v>
+        <v>9.65</v>
       </c>
       <c r="E185">
-        <v>0.038599999999999995</v>
+        <v>3.8599999999999994</v>
       </c>
       <c r="F185">
-        <v>0.0005</v>
-      </c>
-      <c r="G185">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.38799999999999996</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="C186">
-        <v>0.19399999999999998</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D186">
-        <v>0.09699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E186">
-        <v>0.0388</v>
+        <v>3.88</v>
       </c>
       <c r="F186">
-        <v>0.0005</v>
-      </c>
-      <c r="G186">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.39</v>
+        <v>39</v>
       </c>
       <c r="C187">
-        <v>0.195</v>
+        <v>19.5</v>
       </c>
       <c r="D187">
-        <v>0.0975</v>
+        <v>9.75</v>
       </c>
       <c r="E187">
-        <v>0.039</v>
+        <v>3.9</v>
       </c>
       <c r="F187">
-        <v>0.0005</v>
-      </c>
-      <c r="G187">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.392</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="C188">
-        <v>0.196</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D188">
-        <v>0.098</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E188">
-        <v>0.0392</v>
+        <v>3.92</v>
       </c>
       <c r="F188">
-        <v>0.0005</v>
-      </c>
-      <c r="G188">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.39399999999999996</v>
+        <v>39.4</v>
       </c>
       <c r="C189">
-        <v>0.19699999999999998</v>
+        <v>19.7</v>
       </c>
       <c r="D189">
-        <v>0.09849999999999999</v>
+        <v>9.85</v>
       </c>
       <c r="E189">
-        <v>0.0394</v>
+        <v>3.94</v>
       </c>
       <c r="F189">
-        <v>0.0005</v>
-      </c>
-      <c r="G189">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.396</v>
+        <v>39.6</v>
       </c>
       <c r="C190">
-        <v>0.198</v>
+        <v>19.8</v>
       </c>
       <c r="D190">
-        <v>0.099</v>
+        <v>9.9</v>
       </c>
       <c r="E190">
-        <v>0.039599999999999996</v>
+        <v>3.9599999999999995</v>
       </c>
       <c r="F190">
-        <v>0.0005</v>
-      </c>
-      <c r="G190">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.39799999999999996</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="C191">
-        <v>0.19899999999999998</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D191">
-        <v>0.09949999999999999</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E191">
-        <v>0.0398</v>
+        <v>3.9800000000000004</v>
       </c>
       <c r="F191">
-        <v>0.0005</v>
-      </c>
-      <c r="G191">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="C192">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="D192">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="E192">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="F192">
-        <v>0.0005</v>
-      </c>
-      <c r="G192">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.402</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="C193">
-        <v>0.201</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D193">
-        <v>0.1005</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E193">
-        <v>0.04019999999999999</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F193">
-        <v>0.0005</v>
-      </c>
-      <c r="G193">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.40399999999999997</v>
+        <v>40.4</v>
       </c>
       <c r="C194">
-        <v>0.20199999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="D194">
-        <v>0.10099999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="E194">
-        <v>0.0404</v>
+        <v>4.04</v>
       </c>
       <c r="F194">
-        <v>0.0005</v>
-      </c>
-      <c r="G194">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.406</v>
+        <v>40.6</v>
       </c>
       <c r="C195">
-        <v>0.203</v>
+        <v>20.3</v>
       </c>
       <c r="D195">
-        <v>0.1015</v>
+        <v>10.15</v>
       </c>
       <c r="E195">
-        <v>0.0406</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F195">
-        <v>0.0005</v>
-      </c>
-      <c r="G195">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.408</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C196">
-        <v>0.204</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="D196">
-        <v>0.102</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E196">
-        <v>0.0408</v>
+        <v>4.08</v>
       </c>
       <c r="F196">
-        <v>0.0005</v>
-      </c>
-      <c r="G196">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.41</v>
+        <v>41</v>
       </c>
       <c r="C197">
-        <v>0.205</v>
+        <v>20.5</v>
       </c>
       <c r="D197">
-        <v>0.1025</v>
+        <v>10.25</v>
       </c>
       <c r="E197">
-        <v>0.040999999999999995</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F197">
-        <v>0.0005</v>
-      </c>
-      <c r="G197">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.41200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="C198">
-        <v>0.20600000000000002</v>
+        <v>20.6</v>
       </c>
       <c r="D198">
-        <v>0.10300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="E198">
-        <v>0.0412</v>
+        <v>4.12</v>
       </c>
       <c r="F198">
-        <v>0.0005</v>
-      </c>
-      <c r="G198">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.414</v>
+        <v>41.4</v>
       </c>
       <c r="C199">
-        <v>0.207</v>
+        <v>20.7</v>
       </c>
       <c r="D199">
-        <v>0.1035</v>
+        <v>10.35</v>
       </c>
       <c r="E199">
-        <v>0.0414</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="F199">
-        <v>0.0005</v>
-      </c>
-      <c r="G199">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.41600000000000004</v>
+        <v>41.6</v>
       </c>
       <c r="C200">
-        <v>0.20800000000000002</v>
+        <v>20.8</v>
       </c>
       <c r="D200">
-        <v>0.10400000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="E200">
-        <v>0.0416</v>
+        <v>4.16</v>
       </c>
       <c r="F200">
-        <v>0.0005</v>
-      </c>
-      <c r="G200">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.418</v>
+        <v>41.8</v>
       </c>
       <c r="C201">
-        <v>0.209</v>
+        <v>20.9</v>
       </c>
       <c r="D201">
-        <v>0.1045</v>
+        <v>10.45</v>
       </c>
       <c r="E201">
-        <v>0.0418</v>
+        <v>4.18</v>
       </c>
       <c r="F201">
-        <v>0.0005</v>
-      </c>
-      <c r="G201">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.42</v>
+        <v>42</v>
       </c>
       <c r="C202">
-        <v>0.21</v>
+        <v>21</v>
       </c>
       <c r="D202">
-        <v>0.105</v>
+        <v>10.5</v>
       </c>
       <c r="E202">
-        <v>0.042</v>
+        <v>4.2</v>
       </c>
       <c r="F202">
-        <v>0.0005</v>
-      </c>
-      <c r="G202">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.42200000000000004</v>
+        <v>42.2</v>
       </c>
       <c r="C203">
-        <v>0.21100000000000002</v>
+        <v>21.1</v>
       </c>
       <c r="D203">
-        <v>0.10550000000000001</v>
+        <v>10.55</v>
       </c>
       <c r="E203">
-        <v>0.042199999999999994</v>
+        <v>4.22</v>
       </c>
       <c r="F203">
-        <v>0.0005</v>
-      </c>
-      <c r="G203">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.424</v>
+        <v>42.4</v>
       </c>
       <c r="C204">
-        <v>0.212</v>
+        <v>21.2</v>
       </c>
       <c r="D204">
-        <v>0.106</v>
+        <v>10.6</v>
       </c>
       <c r="E204">
-        <v>0.0424</v>
+        <v>4.24</v>
       </c>
       <c r="F204">
-        <v>0.0005</v>
-      </c>
-      <c r="G204">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.426</v>
+        <v>42.6</v>
       </c>
       <c r="C205">
-        <v>0.213</v>
+        <v>21.3</v>
       </c>
       <c r="D205">
-        <v>0.1065</v>
+        <v>10.65</v>
       </c>
       <c r="E205">
-        <v>0.0426</v>
+        <v>4.26</v>
       </c>
       <c r="F205">
-        <v>0.0005</v>
-      </c>
-      <c r="G205">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.428</v>
+        <v>42.8</v>
       </c>
       <c r="C206">
-        <v>0.214</v>
+        <v>21.4</v>
       </c>
       <c r="D206">
-        <v>0.107</v>
+        <v>10.7</v>
       </c>
       <c r="E206">
-        <v>0.042800000000000005</v>
+        <v>4.28</v>
       </c>
       <c r="F206">
-        <v>0.0005</v>
-      </c>
-      <c r="G206">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.43</v>
+        <v>43</v>
       </c>
       <c r="C207">
-        <v>0.215</v>
+        <v>21.5</v>
       </c>
       <c r="D207">
-        <v>0.1075</v>
+        <v>10.75</v>
       </c>
       <c r="E207">
-        <v>0.043</v>
+        <v>4.3</v>
       </c>
       <c r="F207">
-        <v>0.0005</v>
-      </c>
-      <c r="G207">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.43200000000000005</v>
+        <v>43.2</v>
       </c>
       <c r="C208">
-        <v>0.21600000000000003</v>
+        <v>21.6</v>
       </c>
       <c r="D208">
-        <v>0.10800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="E208">
-        <v>0.0432</v>
+        <v>4.32</v>
       </c>
       <c r="F208">
-        <v>0.0005</v>
-      </c>
-      <c r="G208">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.434</v>
+        <v>43.4</v>
       </c>
       <c r="C209">
-        <v>0.217</v>
+        <v>21.7</v>
       </c>
       <c r="D209">
-        <v>0.1085</v>
+        <v>10.85</v>
       </c>
       <c r="E209">
-        <v>0.0434</v>
+        <v>4.34</v>
       </c>
       <c r="F209">
-        <v>0.0005</v>
-      </c>
-      <c r="G209">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.436</v>
+        <v>43.6</v>
       </c>
       <c r="C210">
-        <v>0.218</v>
+        <v>21.8</v>
       </c>
       <c r="D210">
-        <v>0.109</v>
+        <v>10.9</v>
       </c>
       <c r="E210">
-        <v>0.0436</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="F210">
-        <v>0.0005</v>
-      </c>
-      <c r="G210">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.43799999999999994</v>
+        <v>43.8</v>
       </c>
       <c r="C211">
-        <v>0.21899999999999997</v>
+        <v>21.9</v>
       </c>
       <c r="D211">
-        <v>0.10949999999999999</v>
+        <v>10.95</v>
       </c>
       <c r="E211">
-        <v>0.0438</v>
+        <v>4.38</v>
       </c>
       <c r="F211">
-        <v>0.0005</v>
-      </c>
-      <c r="G211">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.44</v>
+        <v>44</v>
       </c>
       <c r="C212">
-        <v>0.22</v>
+        <v>22</v>
       </c>
       <c r="D212">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>0.044000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F212">
-        <v>0.0006</v>
-      </c>
-      <c r="G212">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.442</v>
+        <v>44.2</v>
       </c>
       <c r="C213">
-        <v>0.221</v>
+        <v>22.1</v>
       </c>
       <c r="D213">
-        <v>0.1105</v>
+        <v>11.05</v>
       </c>
       <c r="E213">
-        <v>0.044199999999999996</v>
+        <v>4.42</v>
       </c>
       <c r="F213">
-        <v>0.0006</v>
-      </c>
-      <c r="G213">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.444</v>
+        <v>44.4</v>
       </c>
       <c r="C214">
-        <v>0.222</v>
+        <v>22.2</v>
       </c>
       <c r="D214">
-        <v>0.111</v>
+        <v>11.1</v>
       </c>
       <c r="E214">
-        <v>0.0444</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="F214">
-        <v>0.0006</v>
-      </c>
-      <c r="G214">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.446</v>
+        <v>44.6</v>
       </c>
       <c r="C215">
-        <v>0.223</v>
+        <v>22.3</v>
       </c>
       <c r="D215">
-        <v>0.1115</v>
+        <v>11.15</v>
       </c>
       <c r="E215">
-        <v>0.0446</v>
+        <v>4.46</v>
       </c>
       <c r="F215">
-        <v>0.0006</v>
-      </c>
-      <c r="G215">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.44799999999999995</v>
+        <v>44.8</v>
       </c>
       <c r="C216">
-        <v>0.22399999999999998</v>
+        <v>22.4</v>
       </c>
       <c r="D216">
-        <v>0.11199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="E216">
-        <v>0.044800000000000006</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="F216">
-        <v>0.0006</v>
-      </c>
-      <c r="G216">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.45</v>
+        <v>45</v>
       </c>
       <c r="C217">
-        <v>0.225</v>
+        <v>22.5</v>
       </c>
       <c r="D217">
-        <v>0.1125</v>
+        <v>11.25</v>
       </c>
       <c r="E217">
-        <v>0.045</v>
+        <v>4.5</v>
       </c>
       <c r="F217">
-        <v>0.0006</v>
-      </c>
-      <c r="G217">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.452</v>
+        <v>45.2</v>
       </c>
       <c r="C218">
-        <v>0.226</v>
+        <v>22.6</v>
       </c>
       <c r="D218">
-        <v>0.113</v>
+        <v>11.3</v>
       </c>
       <c r="E218">
-        <v>0.0452</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="F218">
-        <v>0.0006</v>
-      </c>
-      <c r="G218">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="219">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.45399999999999996</v>
+        <v>45.4</v>
       </c>
       <c r="C219">
-        <v>0.22699999999999998</v>
+        <v>22.7</v>
       </c>
       <c r="D219">
-        <v>0.11349999999999999</v>
+        <v>11.35</v>
       </c>
       <c r="E219">
-        <v>0.0454</v>
+        <v>4.54</v>
       </c>
       <c r="F219">
-        <v>0.0006</v>
-      </c>
-      <c r="G219">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.456</v>
+        <v>45.6</v>
       </c>
       <c r="C220">
-        <v>0.228</v>
+        <v>22.8</v>
       </c>
       <c r="D220">
-        <v>0.114</v>
+        <v>11.4</v>
       </c>
       <c r="E220">
-        <v>0.045599999999999995</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="F220">
-        <v>0.0006</v>
-      </c>
-      <c r="G220">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.45799999999999996</v>
+        <v>45.8</v>
       </c>
       <c r="C221">
-        <v>0.22899999999999998</v>
+        <v>22.9</v>
       </c>
       <c r="D221">
-        <v>0.11449999999999999</v>
+        <v>11.45</v>
       </c>
       <c r="E221">
-        <v>0.0458</v>
+        <v>4.58</v>
       </c>
       <c r="F221">
-        <v>0.0006</v>
-      </c>
-      <c r="G221">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.46</v>
+        <v>46</v>
       </c>
       <c r="C222">
-        <v>0.23</v>
+        <v>23</v>
       </c>
       <c r="D222">
-        <v>0.115</v>
+        <v>11.5</v>
       </c>
       <c r="E222">
-        <v>0.046</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F222">
-        <v>0.0006</v>
-      </c>
-      <c r="G222">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.462</v>
+        <v>46.2</v>
       </c>
       <c r="C223">
-        <v>0.231</v>
+        <v>23.1</v>
       </c>
       <c r="D223">
-        <v>0.1155</v>
+        <v>11.55</v>
       </c>
       <c r="E223">
-        <v>0.0462</v>
+        <v>4.62</v>
       </c>
       <c r="F223">
-        <v>0.0006</v>
-      </c>
-      <c r="G223">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.46399999999999997</v>
+        <v>46.4</v>
       </c>
       <c r="C224">
-        <v>0.23199999999999998</v>
+        <v>23.2</v>
       </c>
       <c r="D224">
-        <v>0.11599999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="E224">
-        <v>0.0464</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="F224">
-        <v>0.0006</v>
-      </c>
-      <c r="G224">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.466</v>
+        <v>46.6</v>
       </c>
       <c r="C225">
-        <v>0.233</v>
+        <v>23.3</v>
       </c>
       <c r="D225">
-        <v>0.1165</v>
+        <v>11.65</v>
       </c>
       <c r="E225">
-        <v>0.0466</v>
+        <v>4.66</v>
       </c>
       <c r="F225">
-        <v>0.0006</v>
-      </c>
-      <c r="G225">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.46799999999999997</v>
+        <v>46.8</v>
       </c>
       <c r="C226">
-        <v>0.23399999999999999</v>
+        <v>23.4</v>
       </c>
       <c r="D226">
-        <v>0.11699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="E226">
-        <v>0.046799999999999994</v>
+        <v>4.68</v>
       </c>
       <c r="F226">
-        <v>0.0006</v>
-      </c>
-      <c r="G226">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.47</v>
+        <v>47</v>
       </c>
       <c r="C227">
-        <v>0.235</v>
+        <v>23.5</v>
       </c>
       <c r="D227">
-        <v>0.1175</v>
+        <v>11.75</v>
       </c>
       <c r="E227">
-        <v>0.047</v>
+        <v>4.7</v>
       </c>
       <c r="F227">
-        <v>0.0006</v>
-      </c>
-      <c r="G227">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.47200000000000003</v>
+        <v>47.2</v>
       </c>
       <c r="C228">
-        <v>0.23600000000000002</v>
+        <v>23.6</v>
       </c>
       <c r="D228">
-        <v>0.11800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="E228">
-        <v>0.0472</v>
+        <v>4.72</v>
       </c>
       <c r="F228">
-        <v>0.0006</v>
-      </c>
-      <c r="G228">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.474</v>
+        <v>47.4</v>
       </c>
       <c r="C229">
-        <v>0.237</v>
+        <v>23.7</v>
       </c>
       <c r="D229">
-        <v>0.1185</v>
+        <v>11.85</v>
       </c>
       <c r="E229">
-        <v>0.047400000000000005</v>
+        <v>4.74</v>
       </c>
       <c r="F229">
-        <v>0.0006</v>
-      </c>
-      <c r="G229">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.47600000000000003</v>
+        <v>47.6</v>
       </c>
       <c r="C230">
-        <v>0.23800000000000002</v>
+        <v>23.8</v>
       </c>
       <c r="D230">
-        <v>0.11900000000000001</v>
+        <v>11.9</v>
       </c>
       <c r="E230">
-        <v>0.047599999999999996</v>
+        <v>4.76</v>
       </c>
       <c r="F230">
-        <v>0.0006</v>
-      </c>
-      <c r="G230">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.478</v>
+        <v>47.8</v>
       </c>
       <c r="C231">
-        <v>0.239</v>
+        <v>23.9</v>
       </c>
       <c r="D231">
-        <v>0.1195</v>
+        <v>11.95</v>
       </c>
       <c r="E231">
-        <v>0.0478</v>
+        <v>4.78</v>
       </c>
       <c r="F231">
-        <v>0.0006</v>
-      </c>
-      <c r="G231">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="232">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.48</v>
+        <v>48</v>
       </c>
       <c r="C232">
-        <v>0.24</v>
+        <v>24</v>
       </c>
       <c r="D232">
-        <v>0.12</v>
+        <v>12</v>
       </c>
       <c r="E232">
-        <v>0.048</v>
+        <v>4.8</v>
       </c>
       <c r="F232">
-        <v>0.0006</v>
-      </c>
-      <c r="G232">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.48200000000000004</v>
+        <v>48.2</v>
       </c>
       <c r="C233">
-        <v>0.24100000000000002</v>
+        <v>24.1</v>
       </c>
       <c r="D233">
-        <v>0.12050000000000001</v>
+        <v>12.05</v>
       </c>
       <c r="E233">
-        <v>0.0482</v>
+        <v>4.82</v>
       </c>
       <c r="F233">
-        <v>0.0006</v>
-      </c>
-      <c r="G233">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.484</v>
+        <v>48.4</v>
       </c>
       <c r="C234">
-        <v>0.242</v>
+        <v>24.2</v>
       </c>
       <c r="D234">
-        <v>0.121</v>
+        <v>12.1</v>
       </c>
       <c r="E234">
-        <v>0.0484</v>
+        <v>4.84</v>
       </c>
       <c r="F234">
-        <v>0.0006</v>
-      </c>
-      <c r="G234">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.486</v>
+        <v>48.6</v>
       </c>
       <c r="C235">
-        <v>0.243</v>
+        <v>24.3</v>
       </c>
       <c r="D235">
-        <v>0.1215</v>
+        <v>12.15</v>
       </c>
       <c r="E235">
-        <v>0.048600000000000004</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="F235">
-        <v>0.0006</v>
-      </c>
-      <c r="G235">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.488</v>
+        <v>48.8</v>
       </c>
       <c r="C236">
-        <v>0.244</v>
+        <v>24.4</v>
       </c>
       <c r="D236">
-        <v>0.122</v>
+        <v>12.2</v>
       </c>
       <c r="E236">
-        <v>0.048799999999999996</v>
+        <v>4.88</v>
       </c>
       <c r="F236">
-        <v>0.0006</v>
-      </c>
-      <c r="G236">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="237">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.49</v>
+        <v>49</v>
       </c>
       <c r="C237">
-        <v>0.245</v>
+        <v>24.5</v>
       </c>
       <c r="D237">
-        <v>0.1225</v>
+        <v>12.25</v>
       </c>
       <c r="E237">
-        <v>0.049</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F237">
-        <v>0.0006</v>
-      </c>
-      <c r="G237">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.49200000000000005</v>
+        <v>49.2</v>
       </c>
       <c r="C238">
-        <v>0.24600000000000002</v>
+        <v>24.6</v>
       </c>
       <c r="D238">
-        <v>0.12300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="E238">
-        <v>0.0492</v>
+        <v>4.92</v>
       </c>
       <c r="F238">
-        <v>0.0006</v>
-      </c>
-      <c r="G238">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="239">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.494</v>
+        <v>49.4</v>
       </c>
       <c r="C239">
-        <v>0.247</v>
+        <v>24.7</v>
       </c>
       <c r="D239">
-        <v>0.1235</v>
+        <v>12.35</v>
       </c>
       <c r="E239">
-        <v>0.049400000000000006</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="F239">
-        <v>0.0006</v>
-      </c>
-      <c r="G239">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="240">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.496</v>
+        <v>49.6</v>
       </c>
       <c r="C240">
-        <v>0.248</v>
+        <v>24.8</v>
       </c>
       <c r="D240">
-        <v>0.124</v>
+        <v>12.4</v>
       </c>
       <c r="E240">
-        <v>0.0496</v>
+        <v>4.96</v>
       </c>
       <c r="F240">
-        <v>0.0006</v>
-      </c>
-      <c r="G240">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="241">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.498</v>
+        <v>49.8</v>
       </c>
       <c r="C241">
-        <v>0.249</v>
+        <v>24.9</v>
       </c>
       <c r="D241">
-        <v>0.1245</v>
+        <v>12.45</v>
       </c>
       <c r="E241">
-        <v>0.049800000000000004</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="F241">
-        <v>0.0006</v>
-      </c>
-      <c r="G241">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="242">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="C242">
-        <v>0.25</v>
+        <v>25</v>
       </c>
       <c r="D242">
-        <v>0.125</v>
+        <v>12.5</v>
       </c>
       <c r="E242">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="F242">
-        <v>0.0006</v>
-      </c>
-      <c r="G242">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="243">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.502</v>
+        <v>50.2</v>
       </c>
       <c r="C243">
-        <v>0.251</v>
+        <v>25.1</v>
       </c>
       <c r="D243">
-        <v>0.1255</v>
+        <v>12.55</v>
       </c>
       <c r="E243">
-        <v>0.050199999999999995</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F243">
-        <v>0.0006</v>
-      </c>
-      <c r="G243">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="244">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.504</v>
+        <v>50.4</v>
       </c>
       <c r="C244">
-        <v>0.252</v>
+        <v>25.2</v>
       </c>
       <c r="D244">
-        <v>0.126</v>
+        <v>12.6</v>
       </c>
       <c r="E244">
-        <v>0.0504</v>
+        <v>5.04</v>
       </c>
       <c r="F244">
-        <v>0.0006</v>
-      </c>
-      <c r="G244">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="245">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.506</v>
+        <v>50.6</v>
       </c>
       <c r="C245">
-        <v>0.253</v>
+        <v>25.3</v>
       </c>
       <c r="D245">
-        <v>0.1265</v>
+        <v>12.65</v>
       </c>
       <c r="E245">
-        <v>0.0506</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F245">
-        <v>0.0006</v>
-      </c>
-      <c r="G245">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="246">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.508</v>
+        <v>50.8</v>
       </c>
       <c r="C246">
-        <v>0.254</v>
+        <v>25.4</v>
       </c>
       <c r="D246">
-        <v>0.127</v>
+        <v>12.7</v>
       </c>
       <c r="E246">
-        <v>0.0508</v>
+        <v>5.08</v>
       </c>
       <c r="F246">
-        <v>0.0006</v>
-      </c>
-      <c r="G246">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="247">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.51</v>
+        <v>51</v>
       </c>
       <c r="C247">
-        <v>0.255</v>
+        <v>25.5</v>
       </c>
       <c r="D247">
-        <v>0.1275</v>
+        <v>12.75</v>
       </c>
       <c r="E247">
-        <v>0.051</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F247">
-        <v>0.0006</v>
-      </c>
-      <c r="G247">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="248">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.512</v>
+        <v>51.2</v>
       </c>
       <c r="C248">
-        <v>0.256</v>
+        <v>25.6</v>
       </c>
       <c r="D248">
-        <v>0.128</v>
+        <v>12.8</v>
       </c>
       <c r="E248">
-        <v>0.0512</v>
+        <v>5.12</v>
       </c>
       <c r="F248">
-        <v>0.0006</v>
-      </c>
-      <c r="G248">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="249">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.514</v>
+        <v>51.4</v>
       </c>
       <c r="C249">
-        <v>0.257</v>
+        <v>25.7</v>
       </c>
       <c r="D249">
-        <v>0.1285</v>
+        <v>12.85</v>
       </c>
       <c r="E249">
-        <v>0.051399999999999994</v>
+        <v>5.14</v>
       </c>
       <c r="F249">
-        <v>0.0006</v>
-      </c>
-      <c r="G249">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="250">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.516</v>
+        <v>51.6</v>
       </c>
       <c r="C250">
-        <v>0.258</v>
+        <v>25.8</v>
       </c>
       <c r="D250">
-        <v>0.129</v>
+        <v>12.9</v>
       </c>
       <c r="E250">
-        <v>0.0516</v>
+        <v>5.16</v>
       </c>
       <c r="F250">
-        <v>0.0006</v>
-      </c>
-      <c r="G250">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="251">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.518</v>
+        <v>51.800000000000004</v>
       </c>
       <c r="C251">
-        <v>0.259</v>
+        <v>25.900000000000002</v>
       </c>
       <c r="D251">
-        <v>0.1295</v>
+        <v>12.950000000000001</v>
       </c>
       <c r="E251">
-        <v>0.0518</v>
+        <v>5.18</v>
       </c>
       <c r="F251">
-        <v>0.0006</v>
-      </c>
-      <c r="G251">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="252">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.52</v>
+        <v>52</v>
       </c>
       <c r="C252">
-        <v>0.26</v>
+        <v>26</v>
       </c>
       <c r="D252">
-        <v>0.13</v>
+        <v>13</v>
       </c>
       <c r="E252">
-        <v>0.052000000000000005</v>
+        <v>5.2</v>
       </c>
       <c r="F252">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G252">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="253">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.522</v>
+        <v>52.2</v>
       </c>
       <c r="C253">
-        <v>0.261</v>
+        <v>26.1</v>
       </c>
       <c r="D253">
-        <v>0.1305</v>
+        <v>13.05</v>
       </c>
       <c r="E253">
-        <v>0.052199999999999996</v>
+        <v>5.22</v>
       </c>
       <c r="F253">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G253">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="254">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.524</v>
+        <v>52.400000000000006</v>
       </c>
       <c r="C254">
-        <v>0.262</v>
+        <v>26.200000000000003</v>
       </c>
       <c r="D254">
-        <v>0.131</v>
+        <v>13.100000000000001</v>
       </c>
       <c r="E254">
-        <v>0.0524</v>
+        <v>5.24</v>
       </c>
       <c r="F254">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G254">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="255">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.526</v>
+        <v>52.6</v>
       </c>
       <c r="C255">
-        <v>0.263</v>
+        <v>26.3</v>
       </c>
       <c r="D255">
-        <v>0.1315</v>
+        <v>13.15</v>
       </c>
       <c r="E255">
-        <v>0.0526</v>
+        <v>5.26</v>
       </c>
       <c r="F255">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G255">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="256">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.528</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="C256">
-        <v>0.264</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="D256">
-        <v>0.132</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="E256">
-        <v>0.0528</v>
+        <v>5.28</v>
       </c>
       <c r="F256">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G256">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="257">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.53</v>
+        <v>53</v>
       </c>
       <c r="C257">
-        <v>0.265</v>
+        <v>26.5</v>
       </c>
       <c r="D257">
-        <v>0.1325</v>
+        <v>13.25</v>
       </c>
       <c r="E257">
-        <v>0.053</v>
+        <v>5.3</v>
       </c>
       <c r="F257">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G257">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="258">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.532</v>
+        <v>53.2</v>
       </c>
       <c r="C258">
-        <v>0.266</v>
+        <v>26.6</v>
       </c>
       <c r="D258">
-        <v>0.133</v>
+        <v>13.3</v>
       </c>
       <c r="E258">
-        <v>0.053200000000000004</v>
+        <v>5.32</v>
       </c>
       <c r="F258">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G258">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="259">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.534</v>
+        <v>53.400000000000006</v>
       </c>
       <c r="C259">
-        <v>0.267</v>
+        <v>26.700000000000003</v>
       </c>
       <c r="D259">
-        <v>0.1335</v>
+        <v>13.350000000000001</v>
       </c>
       <c r="E259">
-        <v>0.053399999999999996</v>
+        <v>5.34</v>
       </c>
       <c r="F259">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G259">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="260">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.536</v>
+        <v>53.6</v>
       </c>
       <c r="C260">
-        <v>0.268</v>
+        <v>26.8</v>
       </c>
       <c r="D260">
-        <v>0.134</v>
+        <v>13.4</v>
       </c>
       <c r="E260">
-        <v>0.0536</v>
+        <v>5.36</v>
       </c>
       <c r="F260">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G260">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="261">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.5379999999999999</v>
+        <v>53.79999999999999</v>
       </c>
       <c r="C261">
-        <v>0.26899999999999996</v>
+        <v>26.899999999999995</v>
       </c>
       <c r="D261">
-        <v>0.13449999999999998</v>
+        <v>13.449999999999998</v>
       </c>
       <c r="E261">
-        <v>0.0538</v>
+        <v>5.38</v>
       </c>
       <c r="F261">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G261">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="262">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.54</v>
+        <v>54</v>
       </c>
       <c r="C262">
-        <v>0.27</v>
+        <v>27</v>
       </c>
       <c r="D262">
-        <v>0.135</v>
+        <v>13.5</v>
       </c>
       <c r="E262">
-        <v>0.054000000000000006</v>
+        <v>5.4</v>
       </c>
       <c r="F262">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G262">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.542</v>
+        <v>54.2</v>
       </c>
       <c r="C263">
-        <v>0.271</v>
+        <v>27.1</v>
       </c>
       <c r="D263">
-        <v>0.1355</v>
+        <v>13.55</v>
       </c>
       <c r="E263">
-        <v>0.0542</v>
+        <v>5.42</v>
       </c>
       <c r="F263">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G263">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="264">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.544</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="C264">
-        <v>0.272</v>
+        <v>27.200000000000003</v>
       </c>
       <c r="D264">
-        <v>0.136</v>
+        <v>13.600000000000001</v>
       </c>
       <c r="E264">
-        <v>0.054400000000000004</v>
+        <v>5.44</v>
       </c>
       <c r="F264">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G264">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="265">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.546</v>
+        <v>54.6</v>
       </c>
       <c r="C265">
-        <v>0.273</v>
+        <v>27.3</v>
       </c>
       <c r="D265">
-        <v>0.1365</v>
+        <v>13.65</v>
       </c>
       <c r="E265">
-        <v>0.0546</v>
+        <v>5.46</v>
       </c>
       <c r="F265">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G265">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="266">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.5479999999999999</v>
+        <v>54.79999999999999</v>
       </c>
       <c r="C266">
-        <v>0.27399999999999997</v>
+        <v>27.399999999999995</v>
       </c>
       <c r="D266">
-        <v>0.13699999999999998</v>
+        <v>13.699999999999998</v>
       </c>
       <c r="E266">
-        <v>0.0548</v>
+        <v>5.48</v>
       </c>
       <c r="F266">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G266">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="267">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.55</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="C267">
-        <v>0.275</v>
+        <v>27.500000000000004</v>
       </c>
       <c r="D267">
-        <v>0.1375</v>
+        <v>13.750000000000002</v>
       </c>
       <c r="E267">
-        <v>0.055</v>
+        <v>5.5</v>
       </c>
       <c r="F267">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G267">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="268">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.552</v>
+        <v>55.2</v>
       </c>
       <c r="C268">
-        <v>0.276</v>
+        <v>27.6</v>
       </c>
       <c r="D268">
-        <v>0.138</v>
+        <v>13.8</v>
       </c>
       <c r="E268">
-        <v>0.0552</v>
+        <v>5.52</v>
       </c>
       <c r="F268">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G268">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.5539999999999999</v>
+        <v>55.399999999999991</v>
       </c>
       <c r="C269">
-        <v>0.27699999999999997</v>
+        <v>27.699999999999996</v>
       </c>
       <c r="D269">
-        <v>0.13849999999999998</v>
+        <v>13.849999999999998</v>
       </c>
       <c r="E269">
-        <v>0.0554</v>
+        <v>5.54</v>
       </c>
       <c r="F269">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G269">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="270">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.556</v>
+        <v>55.600000000000009</v>
       </c>
       <c r="C270">
-        <v>0.278</v>
+        <v>27.800000000000004</v>
       </c>
       <c r="D270">
-        <v>0.139</v>
+        <v>13.900000000000002</v>
       </c>
       <c r="E270">
-        <v>0.0556</v>
+        <v>5.56</v>
       </c>
       <c r="F270">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G270">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="271">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.5579999999999999</v>
+        <v>55.8</v>
       </c>
       <c r="C271">
-        <v>0.27899999999999997</v>
+        <v>27.9</v>
       </c>
       <c r="D271">
-        <v>0.13949999999999999</v>
+        <v>13.95</v>
       </c>
       <c r="E271">
-        <v>0.0558</v>
+        <v>5.58</v>
       </c>
       <c r="F271">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G271">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="272">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.56</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="C272">
-        <v>0.28</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="D272">
-        <v>0.14</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="E272">
-        <v>0.055999999999999994</v>
+        <v>5.6</v>
       </c>
       <c r="F272">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G272">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="273">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.562</v>
+        <v>56.2</v>
       </c>
       <c r="C273">
-        <v>0.281</v>
+        <v>28.1</v>
       </c>
       <c r="D273">
-        <v>0.1405</v>
+        <v>14.05</v>
       </c>
       <c r="E273">
-        <v>0.0562</v>
+        <v>5.62</v>
       </c>
       <c r="F273">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G273">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="274">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.564</v>
+        <v>56.399999999999991</v>
       </c>
       <c r="C274">
-        <v>0.282</v>
+        <v>28.199999999999996</v>
       </c>
       <c r="D274">
-        <v>0.141</v>
+        <v>14.099999999999998</v>
       </c>
       <c r="E274">
-        <v>0.0564</v>
+        <v>5.64</v>
       </c>
       <c r="F274">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G274">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="275">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.5660000000000001</v>
+        <v>56.600000000000009</v>
       </c>
       <c r="C275">
-        <v>0.28300000000000003</v>
+        <v>28.300000000000004</v>
       </c>
       <c r="D275">
-        <v>0.14150000000000001</v>
+        <v>14.150000000000002</v>
       </c>
       <c r="E275">
-        <v>0.056600000000000004</v>
+        <v>5.66</v>
       </c>
       <c r="F275">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G275">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="276">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.568</v>
+        <v>56.8</v>
       </c>
       <c r="C276">
-        <v>0.284</v>
+        <v>28.4</v>
       </c>
       <c r="D276">
-        <v>0.142</v>
+        <v>14.2</v>
       </c>
       <c r="E276">
-        <v>0.056799999999999996</v>
+        <v>5.68</v>
       </c>
       <c r="F276">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G276">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="277">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.57</v>
+        <v>56.999999999999993</v>
       </c>
       <c r="C277">
-        <v>0.285</v>
+        <v>28.499999999999996</v>
       </c>
       <c r="D277">
-        <v>0.1425</v>
+        <v>14.249999999999998</v>
       </c>
       <c r="E277">
-        <v>0.057</v>
+        <v>5.7</v>
       </c>
       <c r="F277">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G277">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="278">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.5720000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="C278">
-        <v>0.28600000000000003</v>
+        <v>28.6</v>
       </c>
       <c r="D278">
-        <v>0.14300000000000002</v>
+        <v>14.3</v>
       </c>
       <c r="E278">
-        <v>0.0572</v>
+        <v>5.72</v>
       </c>
       <c r="F278">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G278">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="279">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.574</v>
+        <v>57.4</v>
       </c>
       <c r="C279">
-        <v>0.287</v>
+        <v>28.7</v>
       </c>
       <c r="D279">
-        <v>0.1435</v>
+        <v>14.35</v>
       </c>
       <c r="E279">
-        <v>0.0574</v>
+        <v>5.74</v>
       </c>
       <c r="F279">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G279">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="280">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.5760000000000001</v>
+        <v>57.600000000000009</v>
       </c>
       <c r="C280">
-        <v>0.28800000000000003</v>
+        <v>28.800000000000004</v>
       </c>
       <c r="D280">
-        <v>0.14400000000000002</v>
+        <v>14.400000000000002</v>
       </c>
       <c r="E280">
-        <v>0.0576</v>
+        <v>5.76</v>
       </c>
       <c r="F280">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G280">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="281">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.578</v>
+        <v>57.8</v>
       </c>
       <c r="C281">
-        <v>0.289</v>
+        <v>28.9</v>
       </c>
       <c r="D281">
-        <v>0.1445</v>
+        <v>14.45</v>
       </c>
       <c r="E281">
-        <v>0.057800000000000004</v>
+        <v>5.78</v>
       </c>
       <c r="F281">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G281">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="282">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.58</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="C282">
-        <v>0.29</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="D282">
-        <v>0.145</v>
+        <v>14.499999999999998</v>
       </c>
       <c r="E282">
-        <v>0.057999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="F282">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G282">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="283">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.5820000000000001</v>
+        <v>58.20000000000001</v>
       </c>
       <c r="C283">
-        <v>0.29100000000000004</v>
+        <v>29.100000000000005</v>
       </c>
       <c r="D283">
-        <v>0.14550000000000002</v>
+        <v>14.550000000000002</v>
       </c>
       <c r="E283">
-        <v>0.0582</v>
+        <v>5.82</v>
       </c>
       <c r="F283">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G283">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="284">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.584</v>
+        <v>58.4</v>
       </c>
       <c r="C284">
-        <v>0.292</v>
+        <v>29.2</v>
       </c>
       <c r="D284">
-        <v>0.146</v>
+        <v>14.6</v>
       </c>
       <c r="E284">
-        <v>0.0584</v>
+        <v>5.84</v>
       </c>
       <c r="F284">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G284">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="285">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.586</v>
+        <v>58.599999999999994</v>
       </c>
       <c r="C285">
-        <v>0.293</v>
+        <v>29.299999999999997</v>
       </c>
       <c r="D285">
-        <v>0.1465</v>
+        <v>14.649999999999999</v>
       </c>
       <c r="E285">
-        <v>0.058600000000000006</v>
+        <v>5.86</v>
       </c>
       <c r="F285">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G285">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="286">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.588</v>
+        <v>58.8</v>
       </c>
       <c r="C286">
-        <v>0.294</v>
+        <v>29.4</v>
       </c>
       <c r="D286">
-        <v>0.147</v>
+        <v>14.7</v>
       </c>
       <c r="E286">
-        <v>0.0588</v>
+        <v>5.88</v>
       </c>
       <c r="F286">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G286">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="287">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.59</v>
+        <v>59</v>
       </c>
       <c r="C287">
-        <v>0.295</v>
+        <v>29.5</v>
       </c>
       <c r="D287">
-        <v>0.1475</v>
+        <v>14.75</v>
       </c>
       <c r="E287">
-        <v>0.059000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="F287">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G287">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="288">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.5920000000000001</v>
+        <v>59.20000000000001</v>
       </c>
       <c r="C288">
-        <v>0.29600000000000004</v>
+        <v>29.600000000000005</v>
       </c>
       <c r="D288">
-        <v>0.14800000000000002</v>
+        <v>14.800000000000002</v>
       </c>
       <c r="E288">
-        <v>0.0592</v>
+        <v>5.92</v>
       </c>
       <c r="F288">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G288">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="289">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.594</v>
+        <v>59.4</v>
       </c>
       <c r="C289">
-        <v>0.297</v>
+        <v>29.7</v>
       </c>
       <c r="D289">
-        <v>0.1485</v>
+        <v>14.85</v>
       </c>
       <c r="E289">
-        <v>0.0594</v>
+        <v>5.94</v>
       </c>
       <c r="F289">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G289">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="290">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.596</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="C290">
-        <v>0.298</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="D290">
-        <v>0.149</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="E290">
-        <v>0.0596</v>
+        <v>5.96</v>
       </c>
       <c r="F290">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G290">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="291">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.598</v>
+        <v>59.8</v>
       </c>
       <c r="C291">
-        <v>0.299</v>
+        <v>29.9</v>
       </c>
       <c r="D291">
-        <v>0.1495</v>
+        <v>14.95</v>
       </c>
       <c r="E291">
-        <v>0.059800000000000006</v>
+        <v>5.98</v>
       </c>
       <c r="F291">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G291">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="292">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="C292">
-        <v>0.3</v>
+        <v>30</v>
       </c>
       <c r="D292">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="E292">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="F292">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G292">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="293">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.602</v>
+        <v>60.199999999999996</v>
       </c>
       <c r="C293">
-        <v>0.301</v>
+        <v>30.099999999999998</v>
       </c>
       <c r="D293">
-        <v>0.1505</v>
+        <v>15.049999999999999</v>
       </c>
       <c r="E293">
-        <v>0.0602</v>
+        <v>6.02</v>
       </c>
       <c r="F293">
-        <v>0.0008</v>
-      </c>
-      <c r="G293">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="294">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.604</v>
+        <v>60.4</v>
       </c>
       <c r="C294">
-        <v>0.302</v>
+        <v>30.2</v>
       </c>
       <c r="D294">
-        <v>0.151</v>
+        <v>15.1</v>
       </c>
       <c r="E294">
-        <v>0.0604</v>
+        <v>6.04</v>
       </c>
       <c r="F294">
-        <v>0.0008</v>
-      </c>
-      <c r="G294">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="295">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.606</v>
+        <v>60.6</v>
       </c>
       <c r="C295">
-        <v>0.303</v>
+        <v>30.3</v>
       </c>
       <c r="D295">
-        <v>0.1515</v>
+        <v>15.15</v>
       </c>
       <c r="E295">
-        <v>0.060599999999999994</v>
+        <v>6.06</v>
       </c>
       <c r="F295">
-        <v>0.0008</v>
-      </c>
-      <c r="G295">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="296">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.608</v>
+        <v>60.8</v>
       </c>
       <c r="C296">
-        <v>0.304</v>
+        <v>30.4</v>
       </c>
       <c r="D296">
-        <v>0.152</v>
+        <v>15.2</v>
       </c>
       <c r="E296">
-        <v>0.0608</v>
+        <v>6.08</v>
       </c>
       <c r="F296">
-        <v>0.0008</v>
-      </c>
-      <c r="G296">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="297">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.61</v>
+        <v>61</v>
       </c>
       <c r="C297">
-        <v>0.305</v>
+        <v>30.5</v>
       </c>
       <c r="D297">
-        <v>0.1525</v>
+        <v>15.25</v>
       </c>
       <c r="E297">
-        <v>0.061</v>
+        <v>6.1</v>
       </c>
       <c r="F297">
-        <v>0.0008</v>
-      </c>
-      <c r="G297">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="298">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.612</v>
+        <v>61.199999999999996</v>
       </c>
       <c r="C298">
-        <v>0.306</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="D298">
-        <v>0.153</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="E298">
-        <v>0.061200000000000004</v>
+        <v>6.12</v>
       </c>
       <c r="F298">
-        <v>0.0008</v>
-      </c>
-      <c r="G298">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="299">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.614</v>
+        <v>61.4</v>
       </c>
       <c r="C299">
-        <v>0.307</v>
+        <v>30.7</v>
       </c>
       <c r="D299">
-        <v>0.1535</v>
+        <v>15.35</v>
       </c>
       <c r="E299">
-        <v>0.061399999999999996</v>
+        <v>6.14</v>
       </c>
       <c r="F299">
-        <v>0.0008</v>
-      </c>
-      <c r="G299">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="300">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.616</v>
+        <v>61.6</v>
       </c>
       <c r="C300">
-        <v>0.308</v>
+        <v>30.8</v>
       </c>
       <c r="D300">
-        <v>0.154</v>
+        <v>15.4</v>
       </c>
       <c r="E300">
-        <v>0.0616</v>
+        <v>6.16</v>
       </c>
       <c r="F300">
-        <v>0.0008</v>
-      </c>
-      <c r="G300">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="301">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.618</v>
+        <v>61.8</v>
       </c>
       <c r="C301">
-        <v>0.309</v>
+        <v>30.9</v>
       </c>
       <c r="D301">
-        <v>0.1545</v>
+        <v>15.45</v>
       </c>
       <c r="E301">
-        <v>0.061799999999999994</v>
+        <v>6.18</v>
       </c>
       <c r="F301">
-        <v>0.0008</v>
-      </c>
-      <c r="G301">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="302">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.62</v>
+        <v>62</v>
       </c>
       <c r="C302">
-        <v>0.31</v>
+        <v>31</v>
       </c>
       <c r="D302">
-        <v>0.155</v>
+        <v>15.5</v>
       </c>
       <c r="E302">
-        <v>0.062</v>
+        <v>6.2</v>
       </c>
       <c r="F302">
-        <v>0.0008</v>
-      </c>
-      <c r="G302">
-        <v>300</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G302"/>
+    <ignoredError sqref="A1:F1 A2:A302" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>